--- a/finaltraitanalysisworkthrough8-4-14.xlsx
+++ b/finaltraitanalysisworkthrough8-4-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16260" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28640" windowHeight="16260" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="603">
   <si>
     <t>SNP</t>
   </si>
@@ -1771,13 +1772,82 @@
   </si>
   <si>
     <t>new new</t>
+  </si>
+  <si>
+    <t>.0118tg,.034wh,</t>
+  </si>
+  <si>
+    <t>.03tg,4nas</t>
+  </si>
+  <si>
+    <t>8-8-new</t>
+  </si>
+  <si>
+    <t>GSK3B</t>
+  </si>
+  <si>
+    <t>HAS1</t>
+  </si>
+  <si>
+    <t>RBM5</t>
+  </si>
+  <si>
+    <t>SETD2</t>
+  </si>
+  <si>
+    <t>TMEM176A</t>
+  </si>
+  <si>
+    <t>ZBTB42,AKT1</t>
+  </si>
+  <si>
+    <t>rs1084651</t>
+  </si>
+  <si>
+    <t>[0.36-0.76]_mg/dL_decrease</t>
+  </si>
+  <si>
+    <t>LPA</t>
+  </si>
+  <si>
+    <t>rs2967605</t>
+  </si>
+  <si>
+    <t>[0.04-0.20]_s.d._decrease</t>
+  </si>
+  <si>
+    <t>SBNO1</t>
+  </si>
+  <si>
+    <t>AMPD3</t>
+  </si>
+  <si>
+    <t>ANGPTL8</t>
+  </si>
+  <si>
+    <t>MVK</t>
+  </si>
+  <si>
+    <t>LCAT</t>
+  </si>
+  <si>
+    <t>rs12979813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t>new hdl-cardio</t>
+  </si>
+  <si>
+    <t>8-8afternoon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1829,6 +1899,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1977,7 +2055,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="467">
+  <cellStyleXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2445,8 +2523,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2475,8 +2605,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="467">
+  <cellStyles count="519">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2710,6 +2842,32 @@
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2943,9 +3101,81 @@
     <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
@@ -3187,7 +3417,7 @@
     <tableColumn id="4" name="FREQ_A1"/>
     <tableColumn id="5" name="P_SBP"/>
     <tableColumn id="6" name="P_DBP"/>
-    <tableColumn id="7" name="P_HDL" dataDxfId="21"/>
+    <tableColumn id="7" name="P_HDL" dataDxfId="25"/>
     <tableColumn id="8" name="P_LDL"/>
     <tableColumn id="9" name="P_TG"/>
     <tableColumn id="10" name="P_TC"/>
@@ -3207,6 +3437,63 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="C89:T114" totalsRowShown="0">
+  <autoFilter ref="C89:T114"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="SNP"/>
+    <tableColumn id="6" name="FREQ_A1"/>
+    <tableColumn id="7" name="P_SBP"/>
+    <tableColumn id="8" name="P_DBP"/>
+    <tableColumn id="9" name="P_HDL" dataDxfId="3"/>
+    <tableColumn id="10" name="P_LDL"/>
+    <tableColumn id="11" name="P_TG"/>
+    <tableColumn id="12" name="P_TC"/>
+    <tableColumn id="13" name="P_BMI"/>
+    <tableColumn id="14" name="P_HEIGHT"/>
+    <tableColumn id="15" name="P_WHRadjBMI"/>
+    <tableColumn id="16" name="P_2hrGLUadjBMI"/>
+    <tableColumn id="17" name="P_FastGlu"/>
+    <tableColumn id="18" name="P_HbA1C"/>
+    <tableColumn id="19" name="P_FastIns"/>
+    <tableColumn id="20" name="P_HOMA-B"/>
+    <tableColumn id="21" name="P_HOMA-IR"/>
+    <tableColumn id="22" name="P_FastProIns"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="C138:T158" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2">
+  <autoFilter ref="C138:T158"/>
+  <sortState ref="C139:T158">
+    <sortCondition ref="I138:I158"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" name="SNP"/>
+    <tableColumn id="2" name="FREQ_A1"/>
+    <tableColumn id="3" name="P_SBP"/>
+    <tableColumn id="4" name="P_DBP"/>
+    <tableColumn id="5" name="P_HDL" dataDxfId="1"/>
+    <tableColumn id="6" name="P_LDL"/>
+    <tableColumn id="7" name="P_TG"/>
+    <tableColumn id="8" name="P_TC"/>
+    <tableColumn id="9" name="P_BMI"/>
+    <tableColumn id="10" name="P_HEIGHT"/>
+    <tableColumn id="11" name="P_WHRadjBMI"/>
+    <tableColumn id="12" name="P_2hrGLUadjBMI"/>
+    <tableColumn id="13" name="P_FastGlu"/>
+    <tableColumn id="14" name="P_HbA1C"/>
+    <tableColumn id="15" name="P_FastIns"/>
+    <tableColumn id="16" name="P_HOMA-B"/>
+    <tableColumn id="17" name="P_HOMA-IR"/>
+    <tableColumn id="18" name="P_FastProIns"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A2:U8" totalsRowShown="0">
   <autoFilter ref="A2:U8"/>
   <tableColumns count="21">
@@ -3236,13 +3523,43 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:U31" totalsRowShown="0">
   <autoFilter ref="A2:U31"/>
   <sortState ref="A3:U31">
-    <sortCondition ref="S2:S31"/>
+    <sortCondition ref="L2:L31"/>
   </sortState>
   <tableColumns count="21">
+    <tableColumn id="1" name="SNP"/>
+    <tableColumn id="2" name="FREQ_A1"/>
+    <tableColumn id="3" name="P_SBP"/>
+    <tableColumn id="4" name="P_DBP"/>
+    <tableColumn id="5" name="P_HDL"/>
+    <tableColumn id="6" name="P_LDL" dataDxfId="9"/>
+    <tableColumn id="7" name="P_TG"/>
+    <tableColumn id="8" name="P_TC" dataDxfId="8"/>
+    <tableColumn id="9" name="P_BMI"/>
+    <tableColumn id="10" name="P_HEIGHT"/>
+    <tableColumn id="11" name="P_WHRadjBMI"/>
+    <tableColumn id="12" name="P_2hrGLUadjBMI"/>
+    <tableColumn id="13" name="P_FastGlu"/>
+    <tableColumn id="14" name="P_HbA1C"/>
+    <tableColumn id="15" name="P_FastIns"/>
+    <tableColumn id="16" name="P_HOMA-B"/>
+    <tableColumn id="17" name="P_HOMA-IR"/>
+    <tableColumn id="18" name="P_FastProIns"/>
+    <tableColumn id="19" name="assoc"/>
+    <tableColumn id="20" name="status"/>
+    <tableColumn id="21" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D58:U61" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
+  <autoFilter ref="D58:U61"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="SNP"/>
     <tableColumn id="2" name="FREQ_A1"/>
     <tableColumn id="3" name="P_SBP"/>
@@ -3261,42 +3578,12 @@
     <tableColumn id="16" name="P_HOMA-B"/>
     <tableColumn id="17" name="P_HOMA-IR"/>
     <tableColumn id="18" name="P_FastProIns"/>
-    <tableColumn id="19" name="assoc"/>
-    <tableColumn id="20" name="status"/>
-    <tableColumn id="21" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D58:U61" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="D58:U61"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="SNP"/>
-    <tableColumn id="2" name="FREQ_A1"/>
-    <tableColumn id="3" name="P_SBP"/>
-    <tableColumn id="4" name="P_DBP"/>
-    <tableColumn id="5" name="P_HDL"/>
-    <tableColumn id="6" name="P_LDL" dataDxfId="1"/>
-    <tableColumn id="7" name="P_TG"/>
-    <tableColumn id="8" name="P_TC" dataDxfId="0"/>
-    <tableColumn id="9" name="P_BMI"/>
-    <tableColumn id="10" name="P_HEIGHT"/>
-    <tableColumn id="11" name="P_WHRadjBMI"/>
-    <tableColumn id="12" name="P_2hrGLUadjBMI"/>
-    <tableColumn id="13" name="P_FastGlu"/>
-    <tableColumn id="14" name="P_HbA1C"/>
-    <tableColumn id="15" name="P_FastIns"/>
-    <tableColumn id="16" name="P_HOMA-B"/>
-    <tableColumn id="17" name="P_HOMA-IR"/>
-    <tableColumn id="18" name="P_FastProIns"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A24:U32" totalsRowShown="0">
   <autoFilter ref="A24:U32"/>
   <sortState ref="A25:U32">
@@ -3330,7 +3617,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A66:R77" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A66:R77" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23">
   <autoFilter ref="A66:R77"/>
   <sortState ref="A67:R77">
     <sortCondition ref="G66:G77"/>
@@ -3340,7 +3627,7 @@
     <tableColumn id="2" name="FREQ_A1"/>
     <tableColumn id="3" name="P_SBP"/>
     <tableColumn id="4" name="P_DBP"/>
-    <tableColumn id="5" name="P_HDL" dataDxfId="18"/>
+    <tableColumn id="5" name="P_HDL" dataDxfId="22"/>
     <tableColumn id="6" name="P_LDL"/>
     <tableColumn id="7" name="P_TG"/>
     <tableColumn id="8" name="P_TC"/>
@@ -3360,7 +3647,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="H80:Y94" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="H80:Y94" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20">
   <autoFilter ref="H80:Y94"/>
   <sortState ref="H81:Y94">
     <sortCondition ref="J80:J94"/>
@@ -3370,7 +3657,7 @@
     <tableColumn id="2" name="FREQ_A1"/>
     <tableColumn id="3" name="P_SBP"/>
     <tableColumn id="4" name="P_DBP"/>
-    <tableColumn id="5" name="P_HDL" dataDxfId="15"/>
+    <tableColumn id="5" name="P_HDL" dataDxfId="19"/>
     <tableColumn id="6" name="P_LDL"/>
     <tableColumn id="7" name="P_TG"/>
     <tableColumn id="8" name="P_TC"/>
@@ -3407,10 +3694,10 @@
     <tableColumn id="14" name="P_HEIGHT"/>
     <tableColumn id="15" name="P_WHRadjBMI"/>
     <tableColumn id="16" name="P_2hrGLUadjBMI"/>
-    <tableColumn id="17" name="P_FastGlu" dataDxfId="14"/>
-    <tableColumn id="18" name="P_HbA1C" dataDxfId="13"/>
+    <tableColumn id="17" name="P_FastGlu" dataDxfId="18"/>
+    <tableColumn id="18" name="P_HbA1C" dataDxfId="17"/>
     <tableColumn id="19" name="P_FastIns"/>
-    <tableColumn id="20" name="P_HOMA-B" dataDxfId="12"/>
+    <tableColumn id="20" name="P_HOMA-B" dataDxfId="16"/>
     <tableColumn id="21" name="P_HOMA-IR"/>
     <tableColumn id="22" name="P_FastProIns"/>
   </tableColumns>
@@ -3437,7 +3724,7 @@
     <tableColumn id="10" name="P_TC"/>
     <tableColumn id="11" name="P_BMI"/>
     <tableColumn id="12" name="P_HEIGHT"/>
-    <tableColumn id="13" name="P_WHRadjBMI" dataDxfId="11"/>
+    <tableColumn id="13" name="P_WHRadjBMI" dataDxfId="15"/>
     <tableColumn id="14" name="P_2hrGLUadjBMI"/>
     <tableColumn id="15" name="P_FastGlu"/>
     <tableColumn id="16" name="P_HbA1C"/>
@@ -3497,10 +3784,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B58:B92" totalsRowShown="0" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B58:B92" totalsRowShown="0" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="B58:B92"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="snpsexp" dataDxfId="8"/>
+    <tableColumn id="1" name="snpsexp" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3509,14 +3796,11 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A2:U20" totalsRowShown="0">
   <autoFilter ref="A2:U20"/>
-  <sortState ref="A3:U20">
-    <sortCondition ref="T2:T20"/>
-  </sortState>
   <tableColumns count="21">
     <tableColumn id="1" name="SNP"/>
     <tableColumn id="2" name="FREQ_A1"/>
-    <tableColumn id="3" name="P_SBP" dataDxfId="7"/>
-    <tableColumn id="4" name="P_DBP" dataDxfId="6"/>
+    <tableColumn id="3" name="P_SBP" dataDxfId="11"/>
+    <tableColumn id="4" name="P_DBP" dataDxfId="10"/>
     <tableColumn id="5" name="P_HDL"/>
     <tableColumn id="6" name="P_LDL"/>
     <tableColumn id="7" name="P_TG"/>
@@ -6493,10 +6777,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X195"/>
+  <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView topLeftCell="A187" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6589,61 +6873,61 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B3">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
-        <v>0.79300000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D3">
-        <v>0.50700000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="E3">
-        <v>0.36480000000000001</v>
+        <v>0.30559999999999998</v>
       </c>
       <c r="F3" s="1">
-        <v>4.4990000000000001E-8</v>
+        <v>8.605E-9</v>
       </c>
       <c r="G3">
-        <v>8.2570000000000005E-2</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1.266E-9</v>
+        <v>3.6029999999999999E-8</v>
       </c>
       <c r="I3">
-        <v>0.60399999999999998</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="J3">
-        <v>0.30940000000000001</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="K3">
-        <v>0.36</v>
-      </c>
-      <c r="L3">
-        <v>0.28079999999999999</v>
-      </c>
-      <c r="M3" s="7">
-        <v>3.0870000000000002E-2</v>
-      </c>
-      <c r="N3" s="7">
-        <v>3.1399999999999997E-2</v>
+        <v>0.96</v>
+      </c>
+      <c r="L3" s="7">
+        <v>3.199E-3</v>
+      </c>
+      <c r="M3">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.86970000000000003</v>
       </c>
       <c r="O3">
-        <v>0.43659999999999999</v>
+        <v>0.71530000000000005</v>
       </c>
       <c r="P3">
-        <v>0.44390000000000002</v>
+        <v>0.2306</v>
       </c>
       <c r="Q3">
-        <v>0.2747</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="R3">
-        <v>0.62560000000000004</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="S3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="T3" t="s">
         <v>57</v>
@@ -6651,1242 +6935,1242 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B4">
+        <v>0.67</v>
+      </c>
+      <c r="C4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9.1269999999999997E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.4470000000000003E-21</v>
+      </c>
+      <c r="G4">
+        <v>0.42020000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.9069999999999999E-17</v>
+      </c>
+      <c r="I4">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K4">
         <v>0.98</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>8.0769999999999995E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.5800000000000009E-143</v>
-      </c>
-      <c r="G4">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8.8270000000000003E-86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
+      <c r="L4" s="7">
+        <v>2.7980000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="N4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.2112</v>
+      </c>
+      <c r="P4">
+        <v>0.111</v>
+      </c>
+      <c r="Q4">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="R4" s="7">
+        <v>2.0729999999999998E-2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>455</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="C5">
-        <v>0.54500000000000004</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.30559999999999998</v>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>8.605E-9</v>
-      </c>
-      <c r="G5">
-        <v>0.49080000000000001</v>
+        <v>1.8320000000000001E-9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.2089999999999999E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>3.6029999999999999E-8</v>
+        <v>1.3619999999999999E-7</v>
       </c>
       <c r="I5">
-        <v>0.51200000000000001</v>
+        <v>0.219</v>
       </c>
       <c r="J5">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="K5">
-        <v>0.96</v>
-      </c>
-      <c r="L5" s="7">
-        <v>3.199E-3</v>
+        <v>3.0279999999999999E-3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L5">
+        <v>6.9239999999999996E-2</v>
       </c>
       <c r="M5">
-        <v>0.50819999999999999</v>
+        <v>0.96389999999999998</v>
       </c>
       <c r="N5">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="O5">
-        <v>0.71530000000000005</v>
-      </c>
-      <c r="P5">
-        <v>0.2306</v>
-      </c>
-      <c r="Q5">
-        <v>0.69350000000000001</v>
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1.162E-2</v>
+      </c>
+      <c r="P5" s="7">
+        <v>3.0970000000000001E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>3.1E-2</v>
       </c>
       <c r="R5">
-        <v>0.74939999999999996</v>
+        <v>0.4168</v>
       </c>
       <c r="S5" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>251</v>
+      </c>
+      <c r="U5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B6">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="C6">
-        <v>0.46</v>
+        <v>0.871</v>
       </c>
       <c r="D6">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1.122E-3</v>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.53420000000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>1.7400000000000001E-171</v>
+        <v>2.0870000000000001E-17</v>
       </c>
       <c r="G6">
-        <v>0.32590000000000002</v>
+        <v>0.56489999999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>4.3299999999999999E-132</v>
+        <v>2.2149999999999999E-15</v>
       </c>
       <c r="I6">
-        <v>0.32800000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="J6">
-        <v>1.9970000000000001E-3</v>
-      </c>
-      <c r="K6">
-        <v>0.73</v>
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="L6">
-        <v>0.42759999999999998</v>
+        <v>7.1870000000000003E-2</v>
       </c>
       <c r="M6">
-        <v>0.88139999999999996</v>
+        <v>0.59970000000000001</v>
       </c>
       <c r="N6">
-        <v>0.36309999999999998</v>
+        <v>8.0939999999999998E-2</v>
       </c>
       <c r="O6">
-        <v>0.97750000000000004</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="P6">
-        <v>0.3483</v>
+        <v>0.77880000000000005</v>
       </c>
       <c r="Q6">
-        <v>0.69599999999999995</v>
+        <v>0.42030000000000001</v>
       </c>
       <c r="R6">
-        <v>0.42909999999999998</v>
+        <v>0.1409</v>
       </c>
       <c r="S6" t="s">
-        <v>460</v>
+        <v>341</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="10" customHeight="1">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="B7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C7">
-        <v>0.58599999999999997</v>
+        <v>0.63</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="D7">
-        <v>5.8900000000000001E-2</v>
+        <v>0.161</v>
       </c>
       <c r="E7">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="F7">
-        <v>2.532E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.952E-3</v>
-      </c>
-      <c r="H7">
-        <v>1.103E-3</v>
+        <v>0.8206</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.1120000000000004E-12</v>
+      </c>
+      <c r="G7">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.0939999999999998E-9</v>
       </c>
       <c r="I7">
-        <v>0.92</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="J7">
-        <v>5.0389999999999997E-2</v>
+        <v>4.411E-3</v>
       </c>
       <c r="K7">
-        <v>0.28000000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="L7">
-        <v>0.60499999999999998</v>
+        <v>8.4529999999999994E-2</v>
       </c>
       <c r="M7">
-        <v>0.6089</v>
+        <v>0.495</v>
       </c>
       <c r="N7">
-        <v>0.83630000000000004</v>
+        <v>0.42649999999999999</v>
       </c>
       <c r="O7">
-        <v>0.68620000000000003</v>
+        <v>0.2838</v>
       </c>
       <c r="P7">
-        <v>0.34360000000000002</v>
+        <v>0.30980000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.61939999999999995</v>
+        <v>0.20069999999999999</v>
       </c>
       <c r="R7">
-        <v>0.66290000000000004</v>
+        <v>0.51929999999999998</v>
       </c>
       <c r="S7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="B8">
-        <v>0.97</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6.3680000000000004E-3</v>
+        <v>0.47</v>
+      </c>
+      <c r="C8">
+        <v>0.26</v>
+      </c>
+      <c r="D8">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.71479999999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>1.191E-8</v>
-      </c>
-      <c r="G8">
-        <v>0.88749999999999996</v>
+        <v>2.265E-14</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.4149999999999999E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>7.7190000000000005E-8</v>
+        <v>4.7690000000000004E-12</v>
       </c>
       <c r="I8">
-        <v>0.82499999999999996</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="J8">
-        <v>0.91459999999999997</v>
+        <v>6.0690000000000001E-2</v>
       </c>
       <c r="K8">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="L8">
-        <v>0.62480000000000002</v>
+        <v>0.19919999999999999</v>
       </c>
       <c r="M8">
-        <v>0.73219999999999996</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="N8">
-        <v>0.70040000000000002</v>
+        <v>0.2767</v>
       </c>
       <c r="O8">
-        <v>0.83079999999999998</v>
+        <v>8.5029999999999994E-2</v>
       </c>
       <c r="P8">
-        <v>0.85740000000000005</v>
+        <v>0.1333</v>
       </c>
       <c r="Q8">
-        <v>0.75490000000000002</v>
+        <v>0.25590000000000002</v>
       </c>
       <c r="R8">
-        <v>0.59640000000000004</v>
+        <v>0.49590000000000001</v>
       </c>
       <c r="S8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="B9">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="C9">
-        <v>0.52400000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="D9">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1.8240000000000001E-3</v>
+        <v>0.82</v>
+      </c>
+      <c r="E9">
+        <v>0.43430000000000002</v>
       </c>
       <c r="F9" s="1">
-        <v>3.0460000000000001E-7</v>
+        <v>2.5159999999999999E-15</v>
       </c>
       <c r="G9">
-        <v>6.9830000000000003E-2</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1.2599999999999999E-7</v>
+        <v>3.1060000000000001E-11</v>
       </c>
       <c r="I9">
-        <v>0.107</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J9">
-        <v>6.2129999999999998E-3</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="K9">
-        <v>0.81</v>
+        <v>0.48</v>
       </c>
       <c r="L9">
-        <v>0.6038</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="M9">
-        <v>5.5129999999999998E-2</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="N9">
-        <v>0.19919999999999999</v>
+        <v>0.41110000000000002</v>
       </c>
       <c r="O9">
-        <v>0.92259999999999998</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="P9">
-        <v>0.3019</v>
+        <v>0.3775</v>
       </c>
       <c r="Q9">
-        <v>0.67090000000000005</v>
+        <v>0.79520000000000002</v>
       </c>
       <c r="R9">
-        <v>0.22500000000000001</v>
+        <v>0.47939999999999999</v>
       </c>
       <c r="S9" t="s">
-        <v>458</v>
+        <v>269</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B10">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C10">
-        <v>0.73</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="D10">
-        <v>0.67700000000000005</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="E10">
-        <v>0.72219999999999995</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F10" s="1">
-        <v>9.8370000000000007E-9</v>
-      </c>
-      <c r="G10" s="7">
-        <v>5.5389999999999997E-3</v>
+        <v>1.3220000000000001E-28</v>
+      </c>
+      <c r="G10">
+        <v>0.5746</v>
       </c>
       <c r="H10" s="1">
-        <v>1.658E-8</v>
+        <v>2.9010000000000001E-28</v>
       </c>
       <c r="I10">
-        <v>0.85899999999999999</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="J10">
-        <v>0.54479999999999995</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="L10">
-        <v>0.66139999999999999</v>
+        <v>0.24590000000000001</v>
       </c>
       <c r="M10">
-        <v>0.22620000000000001</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="N10">
-        <v>0.42309999999999998</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="O10">
-        <v>0.1643</v>
-      </c>
-      <c r="P10">
-        <v>0.2979</v>
+        <v>7.4829999999999994E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <v>2.7130000000000001E-2</v>
       </c>
       <c r="Q10">
-        <v>0.17549999999999999</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="R10">
-        <v>0.50229999999999997</v>
+        <v>0.77110000000000001</v>
       </c>
       <c r="S10" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="B11">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="C11">
-        <v>0.55400000000000005</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="D11">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="E11" s="7">
-        <v>9.1269999999999997E-3</v>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.36480000000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>6.4470000000000003E-21</v>
+        <v>4.4990000000000001E-8</v>
       </c>
       <c r="G11">
-        <v>0.42020000000000002</v>
+        <v>8.2570000000000005E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>3.9069999999999999E-17</v>
+        <v>1.266E-9</v>
       </c>
       <c r="I11">
-        <v>0.88500000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="J11">
-        <v>0.82199999999999995</v>
+        <v>0.30940000000000001</v>
       </c>
       <c r="K11">
-        <v>0.98</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2.7980000000000001E-2</v>
-      </c>
-      <c r="M11">
-        <v>0.83509999999999995</v>
-      </c>
-      <c r="N11">
-        <v>0.64700000000000002</v>
+        <v>0.36</v>
+      </c>
+      <c r="L11">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3.0870000000000002E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="O11">
-        <v>0.2112</v>
+        <v>0.43659999999999999</v>
       </c>
       <c r="P11">
-        <v>0.111</v>
+        <v>0.44390000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="R11" s="7">
-        <v>2.0729999999999998E-2</v>
+        <v>0.2747</v>
+      </c>
+      <c r="R11">
+        <v>0.62560000000000004</v>
       </c>
       <c r="S11" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="T11" t="s">
-        <v>251</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B12">
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="C12">
-        <v>0.30499999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="D12">
-        <v>0.36199999999999999</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E12">
-        <v>0.73270000000000002</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>4.8120000000000001E-14</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1.678E-2</v>
+        <v>9.2410000000000007E-12</v>
+      </c>
+      <c r="G12">
+        <v>0.33050000000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>9.4779999999999996E-17</v>
+        <v>4.4560000000000001E-14</v>
       </c>
       <c r="I12">
-        <v>0.318</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="J12">
-        <v>0.3125</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="K12">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="L12">
-        <v>0.41039999999999999</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1.487E-3</v>
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.1822</v>
       </c>
       <c r="N12">
-        <v>0.77400000000000002</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="O12">
-        <v>0.25030000000000002</v>
-      </c>
-      <c r="P12" s="7">
-        <v>2.3550000000000001E-2</v>
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="P12">
+        <v>0.15679999999999999</v>
       </c>
       <c r="Q12">
-        <v>0.68630000000000002</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="R12">
-        <v>0.86770000000000003</v>
+        <v>0.74990000000000001</v>
       </c>
       <c r="S12" t="s">
-        <v>475</v>
+        <v>269</v>
       </c>
       <c r="T12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B13">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="C13">
-        <v>0.85499999999999998</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="D13">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.5449999999999997E-2</v>
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E13">
+        <v>5.339E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>1.8320000000000001E-9</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2.2089999999999999E-2</v>
+        <v>1.6969999999999999E-12</v>
+      </c>
+      <c r="G13">
+        <v>0.41</v>
       </c>
       <c r="H13" s="1">
-        <v>1.3619999999999999E-7</v>
+        <v>5.8859999999999997E-9</v>
       </c>
       <c r="I13">
-        <v>0.219</v>
+        <v>0.32</v>
       </c>
       <c r="J13">
-        <v>3.0279999999999999E-3</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1.9E-2</v>
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="K13">
+        <v>0.42</v>
       </c>
       <c r="L13">
-        <v>6.9239999999999996E-2</v>
+        <v>0.38340000000000002</v>
       </c>
       <c r="M13">
-        <v>0.96389999999999998</v>
+        <v>0.1106</v>
       </c>
       <c r="N13">
-        <v>0.42520000000000002</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1.162E-2</v>
-      </c>
-      <c r="P13" s="7">
-        <v>3.0970000000000001E-2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>3.1E-2</v>
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="P13">
+        <v>0.64680000000000004</v>
+      </c>
+      <c r="Q13">
+        <v>0.4456</v>
       </c>
       <c r="R13">
-        <v>0.4168</v>
+        <v>0.2346</v>
       </c>
       <c r="S13" t="s">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="T13" t="s">
-        <v>251</v>
-      </c>
-      <c r="U13" t="s">
-        <v>377</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B14">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="C14">
-        <v>0.50800000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D14">
-        <v>0.60799999999999998</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="E14">
-        <v>0.1041</v>
+        <v>0.73270000000000002</v>
       </c>
       <c r="F14" s="1">
-        <v>7.124E-16</v>
+        <v>4.8120000000000001E-14</v>
       </c>
       <c r="G14" s="7">
-        <v>1.941E-3</v>
+        <v>1.678E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>4.2289999999999999E-15</v>
+        <v>9.4779999999999996E-17</v>
       </c>
       <c r="I14">
-        <v>0.41099999999999998</v>
+        <v>0.318</v>
       </c>
       <c r="J14">
-        <v>0.92579999999999996</v>
+        <v>0.3125</v>
       </c>
       <c r="K14">
-        <v>0.37</v>
+        <v>0.68</v>
       </c>
       <c r="L14">
-        <v>0.65410000000000001</v>
+        <v>0.41039999999999999</v>
       </c>
       <c r="M14" s="7">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3.6339999999999997E-2</v>
+        <v>1.487E-3</v>
+      </c>
+      <c r="N14">
+        <v>0.77400000000000002</v>
       </c>
       <c r="O14">
-        <v>0.22620000000000001</v>
+        <v>0.25030000000000002</v>
       </c>
       <c r="P14" s="7">
-        <v>2.801E-2</v>
+        <v>2.3550000000000001E-2</v>
       </c>
       <c r="Q14">
-        <v>0.25790000000000002</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="R14">
-        <v>0.68630000000000002</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="S14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B15">
-        <v>0.68</v>
+        <v>0.37</v>
       </c>
       <c r="C15">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.05</v>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.71299999999999997</v>
       </c>
       <c r="E15">
-        <v>0.18179999999999999</v>
+        <v>0.82179999999999997</v>
       </c>
       <c r="F15" s="1">
-        <v>1.6920000000000001E-7</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2.7420000000000001E-3</v>
+        <v>4.2780000000000001E-10</v>
+      </c>
+      <c r="G15">
+        <v>0.43969999999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1.2569999999999999E-9</v>
+        <v>7.7249999999999994E-5</v>
       </c>
       <c r="I15">
-        <v>0.85599999999999998</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="J15">
-        <v>5.653E-3</v>
+        <v>0.48010000000000003</v>
       </c>
       <c r="K15">
-        <v>5.5E-2</v>
+        <v>0.94</v>
       </c>
       <c r="L15">
-        <v>0.69199999999999995</v>
+        <v>0.4244</v>
       </c>
       <c r="M15">
-        <v>0.77810000000000001</v>
+        <v>0.23910000000000001</v>
       </c>
       <c r="N15">
-        <v>0.2293</v>
-      </c>
-      <c r="O15" s="7">
-        <v>1.523E-2</v>
-      </c>
-      <c r="P15" s="7">
-        <v>3.5020000000000003E-2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>2.963E-2</v>
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="O15">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="P15">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="Q15">
+        <v>0.47199999999999998</v>
       </c>
       <c r="R15">
-        <v>0.97130000000000005</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="S15" t="s">
-        <v>476</v>
+        <v>269</v>
       </c>
       <c r="T15" t="s">
-        <v>251</v>
-      </c>
-      <c r="U15" t="s">
-        <v>377</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="B16">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="C16">
-        <v>0.217</v>
+        <v>0.46</v>
       </c>
       <c r="D16">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.79710000000000003</v>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.122E-3</v>
       </c>
       <c r="F16" s="1">
-        <v>3.7419999999999998E-11</v>
-      </c>
-      <c r="G16" s="7">
-        <v>6.8649999999999996E-3</v>
+        <v>1.7400000000000001E-171</v>
+      </c>
+      <c r="G16">
+        <v>0.32590000000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>4.5960000000000002E-11</v>
+        <v>4.3299999999999999E-132</v>
       </c>
       <c r="I16">
-        <v>0.82599999999999996</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="J16">
-        <v>3.3560000000000003E-4</v>
+        <v>1.9970000000000001E-3</v>
       </c>
       <c r="K16">
+        <v>0.73</v>
+      </c>
+      <c r="L16">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="M16">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N16">
+        <v>0.36309999999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="P16">
+        <v>0.3483</v>
+      </c>
+      <c r="Q16">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="R16">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="S16" t="s">
+        <v>460</v>
+      </c>
+      <c r="T16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17">
+        <v>0.42</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.5760000000000001E-12</v>
+      </c>
+      <c r="G17">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.678E-9</v>
+      </c>
+      <c r="I17">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.5222</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>0.46689999999999998</v>
+      </c>
+      <c r="M17">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="N17">
+        <v>0.3306</v>
+      </c>
+      <c r="O17">
+        <v>0.3614</v>
+      </c>
+      <c r="P17">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="R17">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="S17" t="s">
+        <v>466</v>
+      </c>
+      <c r="T17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18">
+        <v>0.53</v>
+      </c>
+      <c r="C18">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.8240000000000001E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.0460000000000001E-7</v>
+      </c>
+      <c r="G18">
+        <v>6.9830000000000003E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.2599999999999999E-7</v>
+      </c>
+      <c r="I18">
+        <v>0.107</v>
+      </c>
+      <c r="J18">
+        <v>6.2129999999999998E-3</v>
+      </c>
+      <c r="K18">
+        <v>0.81</v>
+      </c>
+      <c r="L18">
+        <v>0.6038</v>
+      </c>
+      <c r="M18">
+        <v>5.5129999999999998E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="P18">
+        <v>0.3019</v>
+      </c>
+      <c r="Q18">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="R18">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="S18" t="s">
+        <v>458</v>
+      </c>
+      <c r="T18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L16">
-        <v>0.79510000000000003</v>
-      </c>
-      <c r="M16">
-        <v>0.58309999999999995</v>
-      </c>
-      <c r="N16">
-        <v>5.842E-2</v>
-      </c>
-      <c r="O16">
-        <v>8.1379999999999994E-2</v>
-      </c>
-      <c r="P16" s="7">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>3.0159999999999999E-2</v>
-      </c>
-      <c r="R16">
-        <v>0.4486</v>
-      </c>
-      <c r="S16" t="s">
-        <v>461</v>
-      </c>
-      <c r="T16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B17">
-        <v>0.54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2.418E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3.523E-5</v>
-      </c>
-      <c r="G17">
-        <v>6.0639999999999999E-2</v>
-      </c>
-      <c r="H17">
-        <v>3.6850000000000001E-2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17">
-        <v>0.83689999999999998</v>
-      </c>
-      <c r="O17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" t="s">
-        <v>477</v>
-      </c>
-      <c r="T17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B18">
-        <v>0.38</v>
-      </c>
-      <c r="C18">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="D18">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="E18" s="7">
-        <v>7.6870000000000003E-3</v>
-      </c>
-      <c r="F18" s="1">
-        <v>6.089E-9</v>
-      </c>
-      <c r="G18" s="7">
-        <v>4.7050000000000002E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>7.3650000000000001E-5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2.07E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.21609999999999999</v>
-      </c>
-      <c r="K18">
+      <c r="C19">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D19">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="F19">
+        <v>2.532E-3</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.952E-3</v>
+      </c>
+      <c r="H19">
+        <v>1.103E-3</v>
+      </c>
+      <c r="I19">
         <v>0.92</v>
       </c>
-      <c r="L18">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="M18">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.58550000000000002</v>
-      </c>
-      <c r="O18">
-        <v>0.79630000000000001</v>
-      </c>
-      <c r="P18">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="Q18">
-        <v>0.70669999999999999</v>
-      </c>
-      <c r="R18">
-        <v>0.57489999999999997</v>
-      </c>
-      <c r="S18" t="s">
-        <v>467</v>
-      </c>
-      <c r="T18" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>392</v>
-      </c>
-      <c r="B19">
-        <v>0.92</v>
-      </c>
-      <c r="C19">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="D19">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="E19">
-        <v>5.339E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.6969999999999999E-12</v>
-      </c>
-      <c r="G19">
-        <v>0.41</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5.8859999999999997E-9</v>
-      </c>
-      <c r="I19">
-        <v>0.32</v>
-      </c>
       <c r="J19">
-        <v>0.53910000000000002</v>
+        <v>5.0389999999999997E-2</v>
       </c>
       <c r="K19">
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L19">
-        <v>0.38340000000000002</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="M19">
-        <v>0.1106</v>
+        <v>0.6089</v>
       </c>
       <c r="N19">
-        <v>0.73270000000000002</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="O19">
-        <v>0.57399999999999995</v>
+        <v>0.68620000000000003</v>
       </c>
       <c r="P19">
-        <v>0.64680000000000004</v>
+        <v>0.34360000000000002</v>
       </c>
       <c r="Q19">
-        <v>0.4456</v>
+        <v>0.61939999999999995</v>
       </c>
       <c r="R19">
-        <v>0.2346</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="S19" t="s">
-        <v>269</v>
+        <v>471</v>
       </c>
       <c r="T19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B20">
-        <v>0.87</v>
-      </c>
-      <c r="C20">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="D20">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="E20">
-        <v>0.13900000000000001</v>
+        <v>0.97</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>6.3680000000000004E-3</v>
       </c>
       <c r="F20" s="1">
-        <v>1.3220000000000001E-28</v>
+        <v>1.191E-8</v>
       </c>
       <c r="G20">
-        <v>0.5746</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>2.9010000000000001E-28</v>
+        <v>7.7190000000000005E-8</v>
       </c>
       <c r="I20">
-        <v>0.54300000000000004</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="J20">
-        <v>0.70830000000000004</v>
+        <v>0.91459999999999997</v>
       </c>
       <c r="K20">
-        <v>9.7000000000000003E-2</v>
+        <v>0.65</v>
       </c>
       <c r="L20">
-        <v>0.24590000000000001</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="M20">
-        <v>0.73019999999999996</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="N20">
-        <v>0.63180000000000003</v>
+        <v>0.70040000000000002</v>
       </c>
       <c r="O20">
-        <v>7.4829999999999994E-2</v>
-      </c>
-      <c r="P20" s="7">
-        <v>2.7130000000000001E-2</v>
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="P20">
+        <v>0.85740000000000005</v>
       </c>
       <c r="Q20">
-        <v>7.0699999999999999E-2</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="R20">
-        <v>0.77110000000000001</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="S20" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="T20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21">
+        <v>0.76</v>
+      </c>
+      <c r="C21">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.1041</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7.124E-16</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.941E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.2289999999999999E-15</v>
+      </c>
+      <c r="I21">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="K21">
+        <v>0.37</v>
+      </c>
+      <c r="L21">
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>3.6339999999999997E-2</v>
+      </c>
+      <c r="O21">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="P21" s="7">
+        <v>2.801E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="R21">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="S21" t="s">
+        <v>472</v>
+      </c>
+      <c r="T21" t="s">
+        <v>251</v>
+      </c>
+      <c r="U21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22">
+        <v>0.89</v>
+      </c>
+      <c r="C22">
+        <v>0.73</v>
+      </c>
+      <c r="D22">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.8370000000000007E-9</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5.5389999999999997E-3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.658E-8</v>
+      </c>
+      <c r="I22">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="K22">
+        <v>0.75</v>
+      </c>
+      <c r="L22">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="O22">
+        <v>0.1643</v>
+      </c>
+      <c r="P22">
+        <v>0.2979</v>
+      </c>
+      <c r="Q22">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="S22" t="s">
+        <v>464</v>
+      </c>
+      <c r="T22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
         <v>397</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>0.75</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>0.89700000000000002</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>0.66100000000000003</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>0.85940000000000005</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F23" s="1">
         <v>5.6320000000000004E-9</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>0.1154</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H23" s="1">
         <v>3.8790000000000003E-7</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <v>0.47199999999999998</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>0.24959999999999999</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <v>0.65</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>0.66859999999999997</v>
       </c>
-      <c r="M21">
+      <c r="M23">
         <v>0.33479999999999999</v>
       </c>
-      <c r="N21">
+      <c r="N23">
         <v>0.35920000000000002</v>
       </c>
-      <c r="O21">
+      <c r="O23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="P21">
+      <c r="P23">
         <v>0.66469999999999996</v>
       </c>
-      <c r="Q21">
+      <c r="Q23">
         <v>0.75290000000000001</v>
       </c>
-      <c r="R21">
+      <c r="R23">
         <v>0.57030000000000003</v>
-      </c>
-      <c r="S21" t="s">
-        <v>269</v>
-      </c>
-      <c r="T21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22">
-        <v>0.33</v>
-      </c>
-      <c r="C22">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="D22">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2.6919999999999999E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.5149999999999998E-50</v>
-      </c>
-      <c r="G22">
-        <v>9.8299999999999998E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2.025E-39</v>
-      </c>
-      <c r="I22">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="J22">
-        <v>0.59360000000000002</v>
-      </c>
-      <c r="K22">
-        <v>0.79</v>
-      </c>
-      <c r="L22">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="M22">
-        <v>0.67469999999999997</v>
-      </c>
-      <c r="N22">
-        <v>0.8609</v>
-      </c>
-      <c r="O22">
-        <v>0.4839</v>
-      </c>
-      <c r="P22">
-        <v>0.48659999999999998</v>
-      </c>
-      <c r="Q22">
-        <v>0.83679999999999999</v>
-      </c>
-      <c r="R22">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="S22" t="s">
-        <v>457</v>
-      </c>
-      <c r="T22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>401</v>
-      </c>
-      <c r="B23">
-        <v>0.37</v>
-      </c>
-      <c r="C23">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D23">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="E23">
-        <v>0.82179999999999997</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4.2780000000000001E-10</v>
-      </c>
-      <c r="G23">
-        <v>0.43969999999999998</v>
-      </c>
-      <c r="H23" s="1">
-        <v>7.7249999999999994E-5</v>
-      </c>
-      <c r="I23">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="J23">
-        <v>0.48010000000000003</v>
-      </c>
-      <c r="K23">
-        <v>0.94</v>
-      </c>
-      <c r="L23">
-        <v>0.4244</v>
-      </c>
-      <c r="M23">
-        <v>0.23910000000000001</v>
-      </c>
-      <c r="N23">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="O23">
-        <v>0.50270000000000004</v>
-      </c>
-      <c r="P23">
-        <v>0.42309999999999998</v>
-      </c>
-      <c r="Q23">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="R23">
-        <v>0.37430000000000002</v>
       </c>
       <c r="S23" t="s">
         <v>269</v>
@@ -7895,384 +8179,384 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="B24">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="C24">
-        <v>0.871</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D24">
-        <v>0.85199999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="E24">
-        <v>0.53420000000000001</v>
+        <v>0.54159999999999997</v>
       </c>
       <c r="F24" s="1">
-        <v>2.0870000000000001E-17</v>
+        <v>1.7639999999999999E-9</v>
       </c>
       <c r="G24">
-        <v>0.56489999999999996</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>2.2149999999999999E-15</v>
+        <v>6.6680000000000001E-10</v>
       </c>
       <c r="I24">
-        <v>0.246</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="J24">
-        <v>0.84440000000000004</v>
-      </c>
-      <c r="K24" s="7">
-        <v>2.5999999999999999E-2</v>
+        <v>0.3412</v>
+      </c>
+      <c r="K24">
+        <v>0.44</v>
       </c>
       <c r="L24">
-        <v>7.1870000000000003E-2</v>
+        <v>0.6724</v>
       </c>
       <c r="M24">
-        <v>0.59970000000000001</v>
-      </c>
-      <c r="N24">
-        <v>8.0939999999999998E-2</v>
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1.0330000000000001E-2</v>
       </c>
       <c r="O24">
-        <v>0.42299999999999999</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="P24">
-        <v>0.77880000000000005</v>
+        <v>0.62370000000000003</v>
       </c>
       <c r="Q24">
-        <v>0.42030000000000001</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="R24">
-        <v>0.1409</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="S24" t="s">
-        <v>341</v>
+        <v>456</v>
       </c>
       <c r="T24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B25">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="C25">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.125</v>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.05</v>
       </c>
       <c r="E25">
-        <v>0.54159999999999997</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>1.7639999999999999E-9</v>
-      </c>
-      <c r="G25">
-        <v>0.49099999999999999</v>
+        <v>1.6920000000000001E-7</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2.7420000000000001E-3</v>
       </c>
       <c r="H25" s="1">
-        <v>6.6680000000000001E-10</v>
+        <v>1.2569999999999999E-9</v>
       </c>
       <c r="I25">
-        <v>0.75700000000000001</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="J25">
-        <v>0.3412</v>
+        <v>5.653E-3</v>
       </c>
       <c r="K25">
-        <v>0.44</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L25">
-        <v>0.6724</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="M25">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1.0330000000000001E-2</v>
-      </c>
-      <c r="O25">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="P25">
-        <v>0.62370000000000003</v>
-      </c>
-      <c r="Q25">
-        <v>0.84160000000000001</v>
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.2293</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1.523E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>3.5020000000000003E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>2.963E-2</v>
       </c>
       <c r="R25">
-        <v>0.14879999999999999</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="S25" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="T25" t="s">
+        <v>251</v>
+      </c>
+      <c r="U25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26">
+        <v>0.83</v>
+      </c>
+      <c r="C26">
+        <v>0.217</v>
+      </c>
+      <c r="D26">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.7419999999999998E-11</v>
+      </c>
+      <c r="G26" s="7">
+        <v>6.8649999999999996E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.5960000000000002E-11</v>
+      </c>
+      <c r="I26">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J26">
+        <v>3.3560000000000003E-4</v>
+      </c>
+      <c r="K26">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L26">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="M26">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="N26">
+        <v>5.842E-2</v>
+      </c>
+      <c r="O26">
+        <v>8.1379999999999994E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>3.0159999999999999E-2</v>
+      </c>
+      <c r="R26">
+        <v>0.4486</v>
+      </c>
+      <c r="S26" t="s">
+        <v>461</v>
+      </c>
+      <c r="T26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B27">
+        <v>0.38</v>
+      </c>
+      <c r="C27">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7.6870000000000003E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.089E-9</v>
+      </c>
+      <c r="G27" s="7">
+        <v>4.7050000000000002E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7.3650000000000001E-5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2.07E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.92</v>
+      </c>
+      <c r="L27">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="M27">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="O27">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="Q27">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="R27">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="S27" t="s">
+        <v>467</v>
+      </c>
+      <c r="T27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28">
+        <v>0.33</v>
+      </c>
+      <c r="C28">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2.6919999999999999E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.5149999999999998E-50</v>
+      </c>
+      <c r="G28">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2.025E-39</v>
+      </c>
+      <c r="I28">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J28">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="K28">
+        <v>0.79</v>
+      </c>
+      <c r="L28">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="M28">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="N28">
+        <v>0.8609</v>
+      </c>
+      <c r="O28">
+        <v>0.4839</v>
+      </c>
+      <c r="P28">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="Q28">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="S28" t="s">
+        <v>457</v>
+      </c>
+      <c r="T28" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>435</v>
-      </c>
-      <c r="B26">
-        <v>0.47</v>
-      </c>
-      <c r="C26">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="D26">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="E26">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="F26" s="1">
-        <v>9.2410000000000007E-12</v>
-      </c>
-      <c r="G26">
-        <v>0.33050000000000002</v>
-      </c>
-      <c r="H26" s="1">
-        <v>4.4560000000000001E-14</v>
-      </c>
-      <c r="I26">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="J26">
-        <v>0.79120000000000001</v>
-      </c>
-      <c r="K26">
-        <v>0.67</v>
-      </c>
-      <c r="L26">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="M26">
-        <v>0.1822</v>
-      </c>
-      <c r="N26">
-        <v>0.54920000000000002</v>
-      </c>
-      <c r="O26">
-        <v>0.48049999999999998</v>
-      </c>
-      <c r="P26">
-        <v>0.15679999999999999</v>
-      </c>
-      <c r="Q26">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="R26">
-        <v>0.74990000000000001</v>
-      </c>
-      <c r="S26" t="s">
-        <v>269</v>
-      </c>
-      <c r="T26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>450</v>
-      </c>
-      <c r="B27">
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>453</v>
+      </c>
+      <c r="B29">
+        <v>0.98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>8.0769999999999995E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8.5800000000000009E-143</v>
+      </c>
+      <c r="G29">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8.8270000000000003E-86</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30">
         <v>0.54</v>
-      </c>
-      <c r="C27">
-        <v>0.47</v>
-      </c>
-      <c r="D27">
-        <v>0.82</v>
-      </c>
-      <c r="E27">
-        <v>0.43430000000000002</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2.5159999999999999E-15</v>
-      </c>
-      <c r="G27">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3.1060000000000001E-11</v>
-      </c>
-      <c r="I27">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="J27">
-        <v>0.95220000000000005</v>
-      </c>
-      <c r="K27">
-        <v>0.48</v>
-      </c>
-      <c r="L27">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="M27">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="N27">
-        <v>0.41110000000000002</v>
-      </c>
-      <c r="O27">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="P27">
-        <v>0.3775</v>
-      </c>
-      <c r="Q27">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="R27">
-        <v>0.47939999999999999</v>
-      </c>
-      <c r="S27" t="s">
-        <v>269</v>
-      </c>
-      <c r="T27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>444</v>
-      </c>
-      <c r="B28">
-        <v>0.63</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.161</v>
-      </c>
-      <c r="E28">
-        <v>0.8206</v>
-      </c>
-      <c r="F28" s="1">
-        <v>7.1120000000000004E-12</v>
-      </c>
-      <c r="G28">
-        <v>0.73140000000000005</v>
-      </c>
-      <c r="H28" s="1">
-        <v>6.0939999999999998E-9</v>
-      </c>
-      <c r="I28">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="J28">
-        <v>4.411E-3</v>
-      </c>
-      <c r="K28">
-        <v>0.41</v>
-      </c>
-      <c r="L28">
-        <v>8.4529999999999994E-2</v>
-      </c>
-      <c r="M28">
-        <v>0.495</v>
-      </c>
-      <c r="N28">
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.2838</v>
-      </c>
-      <c r="P28">
-        <v>0.30980000000000002</v>
-      </c>
-      <c r="Q28">
-        <v>0.20069999999999999</v>
-      </c>
-      <c r="R28">
-        <v>0.51929999999999998</v>
-      </c>
-      <c r="S28" t="s">
-        <v>465</v>
-      </c>
-      <c r="T28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>446</v>
-      </c>
-      <c r="B29">
-        <v>0.47</v>
-      </c>
-      <c r="C29">
-        <v>0.26</v>
-      </c>
-      <c r="D29">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E29">
-        <v>0.71479999999999999</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2.265E-14</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1.4149999999999999E-2</v>
-      </c>
-      <c r="H29" s="1">
-        <v>4.7690000000000004E-12</v>
-      </c>
-      <c r="I29">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="J29">
-        <v>6.0690000000000001E-2</v>
-      </c>
-      <c r="K29">
-        <v>0.78</v>
-      </c>
-      <c r="L29">
-        <v>0.19919999999999999</v>
-      </c>
-      <c r="M29">
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.2767</v>
-      </c>
-      <c r="O29">
-        <v>8.5029999999999994E-2</v>
-      </c>
-      <c r="P29">
-        <v>0.1333</v>
-      </c>
-      <c r="Q29">
-        <v>0.25590000000000002</v>
-      </c>
-      <c r="R29">
-        <v>0.49590000000000001</v>
-      </c>
-      <c r="S29" t="s">
-        <v>463</v>
-      </c>
-      <c r="T29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>452</v>
-      </c>
-      <c r="B30">
-        <v>0.96</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -8281,16 +8565,16 @@
         <v>30</v>
       </c>
       <c r="E30" s="7">
-        <v>8.5280000000000009E-3</v>
+        <v>2.418E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>9.8090000000000007E-12</v>
+        <v>3.523E-5</v>
       </c>
       <c r="G30">
-        <v>0.14710000000000001</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3.3569999999999999E-5</v>
+        <v>6.0639999999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>3.6850000000000001E-2</v>
       </c>
       <c r="I30" t="s">
         <v>30</v>
@@ -8304,88 +8588,88 @@
       <c r="L30" t="s">
         <v>30</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" t="s">
+        <v>477</v>
+      </c>
+      <c r="T30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31">
+        <v>0.96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="7">
+        <v>8.5280000000000009E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9.8090000000000007E-12</v>
+      </c>
+      <c r="G31">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3.3569999999999999E-5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31">
         <v>0.93469999999999998</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>0.98429999999999995</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>0.16070000000000001</v>
       </c>
-      <c r="P30">
+      <c r="P31">
         <v>5.7750000000000003E-2</v>
       </c>
-      <c r="Q30">
+      <c r="Q31">
         <v>0.14280000000000001</v>
       </c>
-      <c r="R30">
+      <c r="R31">
         <v>0.60260000000000002</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S31" t="s">
         <v>469</v>
-      </c>
-      <c r="T30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>388</v>
-      </c>
-      <c r="B31">
-        <v>0.42</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="D31">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="E31">
-        <v>0.93440000000000001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3.5760000000000001E-12</v>
-      </c>
-      <c r="G31">
-        <v>0.74209999999999998</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1.678E-9</v>
-      </c>
-      <c r="I31">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J31">
-        <v>0.5222</v>
-      </c>
-      <c r="K31">
-        <v>0.75</v>
-      </c>
-      <c r="L31">
-        <v>0.46689999999999998</v>
-      </c>
-      <c r="M31">
-        <v>0.95579999999999998</v>
-      </c>
-      <c r="N31">
-        <v>0.3306</v>
-      </c>
-      <c r="O31">
-        <v>0.3614</v>
-      </c>
-      <c r="P31">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="Q31">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="R31">
-        <v>0.52569999999999995</v>
-      </c>
-      <c r="S31" t="s">
-        <v>466</v>
       </c>
       <c r="T31" t="s">
         <v>64</v>
@@ -9385,6 +9669,9 @@
       <c r="U59">
         <v>0.5867</v>
       </c>
+      <c r="V59" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="60" spans="1:24">
       <c r="D60" t="s">
@@ -9496,6 +9783,9 @@
       </c>
       <c r="U61">
         <v>0.6986</v>
+      </c>
+      <c r="V61" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -12695,7 +12985,7 @@
         <v>24097068</v>
       </c>
     </row>
-    <row r="193" spans="3:14">
+    <row r="193" spans="2:14">
       <c r="C193" s="7" t="s">
         <v>440</v>
       </c>
@@ -12733,7 +13023,7 @@
         <v>24097068</v>
       </c>
     </row>
-    <row r="194" spans="3:14">
+    <row r="194" spans="2:14">
       <c r="C194" s="7" t="s">
         <v>450</v>
       </c>
@@ -12771,9 +13061,724 @@
         <v>24097068</v>
       </c>
     </row>
-    <row r="195" spans="3:14">
+    <row r="195" spans="2:14">
       <c r="C195" s="7" t="s">
         <v>446</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14">
+      <c r="C198" t="s">
+        <v>83</v>
+      </c>
+      <c r="D198" t="s">
+        <v>84</v>
+      </c>
+      <c r="E198" t="s">
+        <v>85</v>
+      </c>
+      <c r="F198" t="s">
+        <v>86</v>
+      </c>
+      <c r="G198" t="s">
+        <v>87</v>
+      </c>
+      <c r="H198" t="s">
+        <v>88</v>
+      </c>
+      <c r="I198" t="s">
+        <v>89</v>
+      </c>
+      <c r="J198" t="s">
+        <v>90</v>
+      </c>
+      <c r="K198" t="s">
+        <v>91</v>
+      </c>
+      <c r="L198" t="s">
+        <v>92</v>
+      </c>
+      <c r="M198" t="s">
+        <v>93</v>
+      </c>
+      <c r="N198" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14">
+      <c r="B199" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C199" t="s">
+        <v>388</v>
+      </c>
+      <c r="D199">
+        <v>-0.03</v>
+      </c>
+      <c r="E199" t="s">
+        <v>129</v>
+      </c>
+      <c r="F199" t="s">
+        <v>31</v>
+      </c>
+      <c r="G199" t="s">
+        <v>32</v>
+      </c>
+      <c r="H199" s="1">
+        <v>3.9999999999999999E-12</v>
+      </c>
+      <c r="I199" t="s">
+        <v>144</v>
+      </c>
+      <c r="J199" t="s">
+        <v>381</v>
+      </c>
+      <c r="K199" t="s">
+        <v>389</v>
+      </c>
+      <c r="L199">
+        <v>0.46</v>
+      </c>
+      <c r="M199">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14">
+      <c r="B200" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" t="s">
+        <v>392</v>
+      </c>
+      <c r="D200">
+        <v>-0.05</v>
+      </c>
+      <c r="E200" t="s">
+        <v>129</v>
+      </c>
+      <c r="F200" t="s">
+        <v>32</v>
+      </c>
+      <c r="G200" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200" s="1">
+        <v>2E-12</v>
+      </c>
+      <c r="I200" t="s">
+        <v>144</v>
+      </c>
+      <c r="J200" t="s">
+        <v>381</v>
+      </c>
+      <c r="K200" t="s">
+        <v>181</v>
+      </c>
+      <c r="L200">
+        <v>0.08</v>
+      </c>
+      <c r="M200">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14">
+      <c r="B201" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D201">
+        <v>0.02</v>
+      </c>
+      <c r="E201" t="s">
+        <v>96</v>
+      </c>
+      <c r="F201" t="s">
+        <v>28</v>
+      </c>
+      <c r="G201" t="s">
+        <v>29</v>
+      </c>
+      <c r="H201" s="1">
+        <v>8.9999999999999995E-9</v>
+      </c>
+      <c r="I201" t="s">
+        <v>102</v>
+      </c>
+      <c r="J201" t="s">
+        <v>381</v>
+      </c>
+      <c r="K201" t="s">
+        <v>394</v>
+      </c>
+      <c r="L201">
+        <v>0.4</v>
+      </c>
+      <c r="M201">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14">
+      <c r="B202" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C202" t="s">
+        <v>397</v>
+      </c>
+      <c r="D202">
+        <v>0.03</v>
+      </c>
+      <c r="E202" t="s">
+        <v>96</v>
+      </c>
+      <c r="F202" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" t="s">
+        <v>28</v>
+      </c>
+      <c r="H202" s="1">
+        <v>6E-9</v>
+      </c>
+      <c r="I202" t="s">
+        <v>102</v>
+      </c>
+      <c r="J202" t="s">
+        <v>381</v>
+      </c>
+      <c r="K202" t="s">
+        <v>398</v>
+      </c>
+      <c r="L202">
+        <v>0.21</v>
+      </c>
+      <c r="M202">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14">
+      <c r="B203" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="C203" t="s">
+        <v>401</v>
+      </c>
+      <c r="D203">
+        <v>-0.03</v>
+      </c>
+      <c r="E203" t="s">
+        <v>129</v>
+      </c>
+      <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+      <c r="H203" s="1">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="I203" t="s">
+        <v>144</v>
+      </c>
+      <c r="J203" t="s">
+        <v>381</v>
+      </c>
+      <c r="K203" t="s">
+        <v>402</v>
+      </c>
+      <c r="L203">
+        <v>0.38</v>
+      </c>
+      <c r="M203">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14">
+      <c r="B204" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C204" t="s">
+        <v>403</v>
+      </c>
+      <c r="D204">
+        <v>0.03</v>
+      </c>
+      <c r="E204" t="s">
+        <v>96</v>
+      </c>
+      <c r="F204" t="s">
+        <v>28</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="I204" t="s">
+        <v>102</v>
+      </c>
+      <c r="J204" t="s">
+        <v>381</v>
+      </c>
+      <c r="K204" t="s">
+        <v>404</v>
+      </c>
+      <c r="L204">
+        <v>0.12</v>
+      </c>
+      <c r="M204">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14">
+      <c r="B205" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C205" t="s">
+        <v>405</v>
+      </c>
+      <c r="D205">
+        <v>-0.04</v>
+      </c>
+      <c r="E205" t="s">
+        <v>129</v>
+      </c>
+      <c r="F205" t="s">
+        <v>31</v>
+      </c>
+      <c r="G205" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205" s="1">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="I205" t="s">
+        <v>144</v>
+      </c>
+      <c r="J205" t="s">
+        <v>381</v>
+      </c>
+      <c r="K205" t="s">
+        <v>406</v>
+      </c>
+      <c r="L205">
+        <v>0.08</v>
+      </c>
+      <c r="M205">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14">
+      <c r="B206" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C206" t="s">
+        <v>410</v>
+      </c>
+      <c r="D206">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="E206" t="s">
+        <v>129</v>
+      </c>
+      <c r="F206" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" t="s">
+        <v>32</v>
+      </c>
+      <c r="H206" s="1">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="I206" t="s">
+        <v>144</v>
+      </c>
+      <c r="J206" t="s">
+        <v>381</v>
+      </c>
+      <c r="K206" t="s">
+        <v>411</v>
+      </c>
+      <c r="L206">
+        <v>0.183</v>
+      </c>
+      <c r="M206">
+        <v>23726366</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14">
+      <c r="B207" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="D207">
+        <v>0.16</v>
+      </c>
+      <c r="E207" t="s">
+        <v>425</v>
+      </c>
+      <c r="F207" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" t="s">
+        <v>32</v>
+      </c>
+      <c r="H207" s="1">
+        <v>3E-10</v>
+      </c>
+      <c r="I207" t="s">
+        <v>426</v>
+      </c>
+      <c r="J207" t="s">
+        <v>381</v>
+      </c>
+      <c r="K207" t="s">
+        <v>524</v>
+      </c>
+      <c r="L207">
+        <v>0.92</v>
+      </c>
+      <c r="M207">
+        <v>19060911</v>
+      </c>
+      <c r="N207" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14">
+      <c r="B208" s="6"/>
+      <c r="C208" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D208">
+        <v>-0.06</v>
+      </c>
+      <c r="E208" t="s">
+        <v>526</v>
+      </c>
+      <c r="F208" t="s">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s">
+        <v>29</v>
+      </c>
+      <c r="H208" s="1">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="I208" t="s">
+        <v>527</v>
+      </c>
+      <c r="J208" t="s">
+        <v>381</v>
+      </c>
+      <c r="K208" t="s">
+        <v>528</v>
+      </c>
+      <c r="L208">
+        <v>0.32</v>
+      </c>
+      <c r="M208">
+        <v>19060906</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13">
+      <c r="B209" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C209" t="s">
+        <v>435</v>
+      </c>
+      <c r="D209">
+        <v>-0.04</v>
+      </c>
+      <c r="E209" t="s">
+        <v>129</v>
+      </c>
+      <c r="F209" t="s">
+        <v>29</v>
+      </c>
+      <c r="G209" t="s">
+        <v>31</v>
+      </c>
+      <c r="H209" s="1">
+        <v>8.9999999999999996E-12</v>
+      </c>
+      <c r="I209" t="s">
+        <v>144</v>
+      </c>
+      <c r="J209" t="s">
+        <v>381</v>
+      </c>
+      <c r="K209" t="s">
+        <v>436</v>
+      </c>
+      <c r="L209">
+        <v>0.48</v>
+      </c>
+      <c r="M209">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13">
+      <c r="B210" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C210" t="s">
+        <v>444</v>
+      </c>
+      <c r="D210">
+        <v>0.05</v>
+      </c>
+      <c r="E210" t="s">
+        <v>96</v>
+      </c>
+      <c r="F210" t="s">
+        <v>31</v>
+      </c>
+      <c r="G210" t="s">
+        <v>32</v>
+      </c>
+      <c r="H210" s="1">
+        <v>7.0000000000000001E-12</v>
+      </c>
+      <c r="I210" t="s">
+        <v>102</v>
+      </c>
+      <c r="J210" t="s">
+        <v>381</v>
+      </c>
+      <c r="K210" t="s">
+        <v>445</v>
+      </c>
+      <c r="L210">
+        <v>0.4</v>
+      </c>
+      <c r="M210">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13">
+      <c r="B211" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" t="s">
+        <v>437</v>
+      </c>
+      <c r="D211">
+        <v>0.06</v>
+      </c>
+      <c r="E211" t="s">
+        <v>96</v>
+      </c>
+      <c r="F211" t="s">
+        <v>31</v>
+      </c>
+      <c r="G211" t="s">
+        <v>32</v>
+      </c>
+      <c r="H211" s="1">
+        <v>2.9999999999999999E-50</v>
+      </c>
+      <c r="I211" t="s">
+        <v>102</v>
+      </c>
+      <c r="J211" t="s">
+        <v>381</v>
+      </c>
+      <c r="K211" t="s">
+        <v>408</v>
+      </c>
+      <c r="L211">
+        <v>0.32</v>
+      </c>
+      <c r="M211">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="212" spans="2:13">
+      <c r="B212" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C212" t="s">
+        <v>440</v>
+      </c>
+      <c r="D212">
+        <v>-0.04</v>
+      </c>
+      <c r="E212" t="s">
+        <v>129</v>
+      </c>
+      <c r="F212" t="s">
+        <v>28</v>
+      </c>
+      <c r="G212" t="s">
+        <v>29</v>
+      </c>
+      <c r="H212" s="1">
+        <v>2.0000000000000001E-17</v>
+      </c>
+      <c r="I212" t="s">
+        <v>144</v>
+      </c>
+      <c r="J212" t="s">
+        <v>381</v>
+      </c>
+      <c r="K212" t="s">
+        <v>441</v>
+      </c>
+      <c r="L212">
+        <v>0.24</v>
+      </c>
+      <c r="M212">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="213" spans="2:13">
+      <c r="B213" s="6"/>
+      <c r="C213" t="s">
+        <v>450</v>
+      </c>
+      <c r="D213">
+        <v>0.03</v>
+      </c>
+      <c r="E213" t="s">
+        <v>96</v>
+      </c>
+      <c r="F213" t="s">
+        <v>28</v>
+      </c>
+      <c r="G213" t="s">
+        <v>31</v>
+      </c>
+      <c r="H213" s="1">
+        <v>2.9999999999999998E-15</v>
+      </c>
+      <c r="I213" t="s">
+        <v>102</v>
+      </c>
+      <c r="J213" t="s">
+        <v>381</v>
+      </c>
+      <c r="K213" t="s">
+        <v>451</v>
+      </c>
+      <c r="L213">
+        <v>0.46</v>
+      </c>
+      <c r="M213">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="214" spans="2:13">
+      <c r="B214" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C214" t="s">
+        <v>446</v>
+      </c>
+      <c r="D214">
+        <v>-0.03</v>
+      </c>
+      <c r="E214" t="s">
+        <v>129</v>
+      </c>
+      <c r="F214" t="s">
+        <v>29</v>
+      </c>
+      <c r="G214" t="s">
+        <v>31</v>
+      </c>
+      <c r="H214" s="1">
+        <v>2E-14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>144</v>
+      </c>
+      <c r="J214" t="s">
+        <v>381</v>
+      </c>
+      <c r="K214" t="s">
+        <v>447</v>
+      </c>
+      <c r="L214">
+        <v>0.46</v>
+      </c>
+      <c r="M214">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="215" spans="2:13">
+      <c r="B215" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D215">
+        <v>0.03</v>
+      </c>
+      <c r="E215" t="s">
+        <v>96</v>
+      </c>
+      <c r="F215" t="s">
+        <v>31</v>
+      </c>
+      <c r="G215" t="s">
+        <v>28</v>
+      </c>
+      <c r="H215" s="1">
+        <v>5.0000000000000002E-14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>102</v>
+      </c>
+      <c r="J215" t="s">
+        <v>381</v>
+      </c>
+      <c r="K215" t="s">
+        <v>449</v>
+      </c>
+      <c r="L215">
+        <v>0.25</v>
+      </c>
+      <c r="M215">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13">
+      <c r="C217" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="218" spans="2:13">
+      <c r="C218" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D218" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13">
+      <c r="C219" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D219" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="220" spans="2:13">
+      <c r="C220" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="D220" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -12795,8 +13800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13503,7 +14508,7 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>490</v>
       </c>
       <c r="B25">
@@ -13565,7 +14570,7 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>493</v>
       </c>
       <c r="B26">
@@ -13627,7 +14632,7 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>506</v>
       </c>
       <c r="B27">
@@ -13689,7 +14694,7 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
         <v>496</v>
       </c>
       <c r="B28">
@@ -13751,7 +14756,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" t="s">
+      <c r="A29" s="7" t="s">
         <v>503</v>
       </c>
       <c r="B29">
@@ -13813,7 +14818,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>509</v>
       </c>
       <c r="B30">
@@ -13875,7 +14880,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" t="s">
+      <c r="A31" s="7" t="s">
         <v>485</v>
       </c>
       <c r="B31">
@@ -13937,7 +14942,7 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" t="s">
+      <c r="A32" s="7" t="s">
         <v>500</v>
       </c>
       <c r="B32">
@@ -14083,6 +15088,23 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18545,7 +19567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:T20"/>
     </sheetView>
   </sheetViews>
@@ -19597,7 +20619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
@@ -26921,7 +27943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:A34"/>
     </sheetView>
   </sheetViews>
@@ -28012,24 +29034,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -29219,6 +30249,9 @@
       </c>
     </row>
     <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>582</v>
+      </c>
       <c r="H22" t="s">
         <v>0</v>
       </c>
@@ -29236,6 +30269,13 @@
       </c>
     </row>
     <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="H23" t="s">
         <v>303</v>
       </c>
@@ -29253,6 +30293,12 @@
       </c>
     </row>
     <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
@@ -29282,6 +30328,12 @@
       </c>
     </row>
     <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>345</v>
+      </c>
       <c r="C25" s="16" t="s">
         <v>288</v>
       </c>
@@ -29311,6 +30363,12 @@
       </c>
     </row>
     <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="C26" s="16" t="s">
         <v>293</v>
       </c>
@@ -29939,7 +30997,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="3:13">
+    <row r="49" spans="2:22">
       <c r="C49" s="7" t="s">
         <v>320</v>
       </c>
@@ -29974,7 +31032,7 @@
         <v>21909115</v>
       </c>
     </row>
-    <row r="50" spans="3:13">
+    <row r="50" spans="2:22">
       <c r="C50" s="7" t="s">
         <v>321</v>
       </c>
@@ -30009,7 +31067,7 @@
         <v>19430479</v>
       </c>
     </row>
-    <row r="51" spans="3:13">
+    <row r="51" spans="2:22">
       <c r="C51" t="s">
         <v>325</v>
       </c>
@@ -30042,13 +31100,4089 @@
       </c>
       <c r="M51">
         <v>19430479</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" ht="16" thickBot="1">
+      <c r="B53" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R53" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="S53" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="T53" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="U53" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V53" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" ht="16" thickTop="1">
+      <c r="B54" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.43E-7</v>
+      </c>
+      <c r="E54">
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="F54">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="H54">
+        <v>7.1260000000000004E-3</v>
+      </c>
+      <c r="I54">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="J54">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K54" s="1">
+        <v>7.9949999999999999E-15</v>
+      </c>
+      <c r="L54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="N54">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="O54">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="P54">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="Q54">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="R54">
+        <v>0.877</v>
+      </c>
+      <c r="S54">
+        <v>0.12889999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55">
+        <v>0.54</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.4400000000000001E-7</v>
+      </c>
+      <c r="E55">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="G55">
+        <v>3.3279999999999998E-3</v>
+      </c>
+      <c r="H55">
+        <v>6.9139999999999993E-2</v>
+      </c>
+      <c r="I55">
+        <v>1.243E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.1</v>
+      </c>
+      <c r="M55">
+        <v>0.4037</v>
+      </c>
+      <c r="N55">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="O55">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="P55">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="Q55">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="R55">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="S55">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56">
+        <v>0.83</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7.3300000000000001E-7</v>
+      </c>
+      <c r="E56">
+        <v>9.4900000000000002E-3</v>
+      </c>
+      <c r="F56">
+        <v>4.4409999999999996E-3</v>
+      </c>
+      <c r="G56">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="H56">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="I56">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="J56">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.1464</v>
+      </c>
+      <c r="L56">
+        <v>0.91</v>
+      </c>
+      <c r="M56">
+        <v>7.3230000000000003E-2</v>
+      </c>
+      <c r="N56">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="O56">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="P56">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="Q56">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="R56">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="S56">
+        <v>0.7631</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" t="s">
+        <v>92</v>
+      </c>
+      <c r="M64" t="s">
+        <v>93</v>
+      </c>
+      <c r="N64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>0.02</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="1">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+      <c r="J65" t="s">
+        <v>543</v>
+      </c>
+      <c r="K65" t="s">
+        <v>544</v>
+      </c>
+      <c r="L65">
+        <v>0.49</v>
+      </c>
+      <c r="M65">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>0.02</v>
+      </c>
+      <c r="E66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="1">
+        <v>6.0000000000000003E-12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>548</v>
+      </c>
+      <c r="L66">
+        <v>0.45</v>
+      </c>
+      <c r="M66">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>0.02</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+      <c r="J67" t="s">
+        <v>543</v>
+      </c>
+      <c r="K67" t="s">
+        <v>583</v>
+      </c>
+      <c r="L67">
+        <v>0.39</v>
+      </c>
+      <c r="M67">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>-0.03</v>
+      </c>
+      <c r="E68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" t="s">
+        <v>543</v>
+      </c>
+      <c r="K68" t="s">
+        <v>584</v>
+      </c>
+      <c r="L68">
+        <v>0.26</v>
+      </c>
+      <c r="M68">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>0.02</v>
+      </c>
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69" t="s">
+        <v>543</v>
+      </c>
+      <c r="K69" t="s">
+        <v>549</v>
+      </c>
+      <c r="L69">
+        <v>0.32</v>
+      </c>
+      <c r="M69">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>-0.03</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="I70" t="s">
+        <v>144</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>550</v>
+      </c>
+      <c r="L70">
+        <v>0.19</v>
+      </c>
+      <c r="M70">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>0.03</v>
+      </c>
+      <c r="E71" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+      <c r="J71" t="s">
+        <v>543</v>
+      </c>
+      <c r="K71" t="s">
+        <v>551</v>
+      </c>
+      <c r="L71">
+        <v>0.15</v>
+      </c>
+      <c r="M71">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>0.03</v>
+      </c>
+      <c r="E72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="1">
+        <v>8.9999999999999996E-12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" t="s">
+        <v>543</v>
+      </c>
+      <c r="K72" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72">
+        <v>0.5</v>
+      </c>
+      <c r="M72">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13">
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>-0.03</v>
+      </c>
+      <c r="E73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" t="s">
+        <v>543</v>
+      </c>
+      <c r="K73" t="s">
+        <v>586</v>
+      </c>
+      <c r="L73">
+        <v>0.2</v>
+      </c>
+      <c r="M73">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>-0.04</v>
+      </c>
+      <c r="E74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2E-8</v>
+      </c>
+      <c r="I74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" t="s">
+        <v>543</v>
+      </c>
+      <c r="K74" t="s">
+        <v>587</v>
+      </c>
+      <c r="L74">
+        <v>0.12</v>
+      </c>
+      <c r="M74">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>0.02</v>
+      </c>
+      <c r="E75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+      <c r="J75" t="s">
+        <v>543</v>
+      </c>
+      <c r="K75" t="s">
+        <v>588</v>
+      </c>
+      <c r="L75">
+        <v>0.4</v>
+      </c>
+      <c r="M75">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" t="s">
+        <v>557</v>
+      </c>
+      <c r="D76">
+        <v>0.02</v>
+      </c>
+      <c r="E76" t="s">
+        <v>558</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="1">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="I76" t="s">
+        <v>559</v>
+      </c>
+      <c r="J76" t="s">
+        <v>543</v>
+      </c>
+      <c r="K76" t="s">
+        <v>560</v>
+      </c>
+      <c r="L76">
+        <v>0.34</v>
+      </c>
+      <c r="M76">
+        <v>21909109</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" t="s">
+        <v>589</v>
+      </c>
+      <c r="D77">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="E77" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="I77" t="s">
+        <v>590</v>
+      </c>
+      <c r="J77" t="s">
+        <v>543</v>
+      </c>
+      <c r="K77" t="s">
+        <v>591</v>
+      </c>
+      <c r="L77">
+        <v>0.16</v>
+      </c>
+      <c r="M77">
+        <v>20686565</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>526</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="1">
+        <v>6E-11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>561</v>
+      </c>
+      <c r="J78" t="s">
+        <v>543</v>
+      </c>
+      <c r="K78" t="s">
+        <v>562</v>
+      </c>
+      <c r="L78">
+        <v>0.61</v>
+      </c>
+      <c r="M78">
+        <v>19060911</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13">
+      <c r="C79" t="s">
+        <v>592</v>
+      </c>
+      <c r="D79">
+        <v>-0.12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>526</v>
+      </c>
+      <c r="F79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="I79" t="s">
+        <v>593</v>
+      </c>
+      <c r="J79" t="s">
+        <v>543</v>
+      </c>
+      <c r="K79" t="s">
+        <v>566</v>
+      </c>
+      <c r="L79">
+        <v>0.16</v>
+      </c>
+      <c r="M79">
+        <v>19060906</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13">
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>-0.04</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.0000000000000003E-18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" t="s">
+        <v>543</v>
+      </c>
+      <c r="K80" t="s">
+        <v>563</v>
+      </c>
+      <c r="L80">
+        <v>0.23</v>
+      </c>
+      <c r="M80">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20">
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>-0.03</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3.0000000000000001E-17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>144</v>
+      </c>
+      <c r="J81" t="s">
+        <v>543</v>
+      </c>
+      <c r="K81" t="s">
+        <v>564</v>
+      </c>
+      <c r="L81">
+        <v>0.35</v>
+      </c>
+      <c r="M81">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20">
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>0.06</v>
+      </c>
+      <c r="E82" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" t="s">
+        <v>543</v>
+      </c>
+      <c r="K82" t="s">
+        <v>594</v>
+      </c>
+      <c r="L82">
+        <v>0.08</v>
+      </c>
+      <c r="M82">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="83" spans="3:20">
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>-0.03</v>
+      </c>
+      <c r="E83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="I83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" t="s">
+        <v>543</v>
+      </c>
+      <c r="K83" t="s">
+        <v>595</v>
+      </c>
+      <c r="L83">
+        <v>0.18</v>
+      </c>
+      <c r="M83">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20">
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>-0.06</v>
+      </c>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="1">
+        <v>4.9999999999999999E-17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>144</v>
+      </c>
+      <c r="J84" t="s">
+        <v>543</v>
+      </c>
+      <c r="K84" t="s">
+        <v>596</v>
+      </c>
+      <c r="L84">
+        <v>0.11</v>
+      </c>
+      <c r="M84">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20">
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>-0.04</v>
+      </c>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>144</v>
+      </c>
+      <c r="J85" t="s">
+        <v>543</v>
+      </c>
+      <c r="K85" t="s">
+        <v>597</v>
+      </c>
+      <c r="L85">
+        <v>0.48</v>
+      </c>
+      <c r="M85">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20">
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>0.08</v>
+      </c>
+      <c r="E86" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="1">
+        <v>8.0000000000000002E-54</v>
+      </c>
+      <c r="I86" t="s">
+        <v>102</v>
+      </c>
+      <c r="J86" t="s">
+        <v>543</v>
+      </c>
+      <c r="K86" t="s">
+        <v>598</v>
+      </c>
+      <c r="L86">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M86">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20">
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>0.05</v>
+      </c>
+      <c r="E87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="1">
+        <v>6.0000000000000001E-32</v>
+      </c>
+      <c r="I87" t="s">
+        <v>102</v>
+      </c>
+      <c r="J87" t="s">
+        <v>543</v>
+      </c>
+      <c r="K87" t="s">
+        <v>567</v>
+      </c>
+      <c r="L87">
+        <v>0.34</v>
+      </c>
+      <c r="M87">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20">
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>0.05</v>
+      </c>
+      <c r="E88" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3E-23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>102</v>
+      </c>
+      <c r="J88" t="s">
+        <v>543</v>
+      </c>
+      <c r="K88" t="s">
+        <v>568</v>
+      </c>
+      <c r="L88">
+        <v>0.26</v>
+      </c>
+      <c r="M88">
+        <v>24097068</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20">
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" t="s">
+        <v>42</v>
+      </c>
+      <c r="L89" t="s">
+        <v>43</v>
+      </c>
+      <c r="M89" t="s">
+        <v>44</v>
+      </c>
+      <c r="N89" t="s">
+        <v>45</v>
+      </c>
+      <c r="O89" t="s">
+        <v>46</v>
+      </c>
+      <c r="P89" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>48</v>
+      </c>
+      <c r="R89" t="s">
+        <v>49</v>
+      </c>
+      <c r="S89" t="s">
+        <v>50</v>
+      </c>
+      <c r="T89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20">
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E90">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F90">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>6.4500000000000002E-12</v>
+      </c>
+      <c r="H90">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="I90">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="J90">
+        <v>2.921E-4</v>
+      </c>
+      <c r="K90">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="L90">
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="M90">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N90">
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="O90">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="P90">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="Q90">
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="R90">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="S90">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="T90">
+        <v>0.68440000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="3:20">
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>0.44</v>
+      </c>
+      <c r="E91">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F91">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1.7730000000000001E-13</v>
+      </c>
+      <c r="H91">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="I91">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="J91">
+        <v>3.1080000000000002E-4</v>
+      </c>
+      <c r="K91">
+        <v>0.25</v>
+      </c>
+      <c r="L91">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="M91">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N91">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="O91">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="P91">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="Q91">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="R91">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="S91">
+        <v>0.3362</v>
+      </c>
+      <c r="T91">
+        <v>0.43230000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20">
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>0.93</v>
+      </c>
+      <c r="E92">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="F92">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="G92" s="1">
+        <v>4.5640000000000001E-17</v>
+      </c>
+      <c r="H92">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="I92">
+        <v>0.1221</v>
+      </c>
+      <c r="J92" s="1">
+        <v>4.0790000000000001E-5</v>
+      </c>
+      <c r="K92">
+        <v>0.112</v>
+      </c>
+      <c r="L92">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="M92">
+        <v>0.16</v>
+      </c>
+      <c r="N92">
+        <v>0.28149999999999997</v>
+      </c>
+      <c r="O92">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="P92">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="Q92">
+        <v>0.7994</v>
+      </c>
+      <c r="R92">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="S92">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="T92">
+        <v>4.3150000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20">
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93">
+        <v>0.87</v>
+      </c>
+      <c r="E93">
+        <v>5.33E-2</v>
+      </c>
+      <c r="F93">
+        <v>0.309</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1.6809999999999999E-10</v>
+      </c>
+      <c r="H93">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="I93">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="J93">
+        <v>1.9439999999999999E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L93" s="1">
+        <v>9.2960000000000004E-5</v>
+      </c>
+      <c r="M93">
+        <v>0.21</v>
+      </c>
+      <c r="N93">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="O93">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="P93">
+        <v>0.2954</v>
+      </c>
+      <c r="Q93">
+        <v>0.7329</v>
+      </c>
+      <c r="R93">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="S93">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="T93">
+        <v>0.1948</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20">
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>0.32</v>
+      </c>
+      <c r="E94">
+        <v>0.17</v>
+      </c>
+      <c r="F94">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2.6960000000000001E-17</v>
+      </c>
+      <c r="H94">
+        <v>0.48230000000000001</v>
+      </c>
+      <c r="I94">
+        <v>5.9159999999999997E-2</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1.959E-5</v>
+      </c>
+      <c r="K94">
+        <v>0.85</v>
+      </c>
+      <c r="L94">
+        <v>7.672E-3</v>
+      </c>
+      <c r="M94">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N94">
+        <v>0.3538</v>
+      </c>
+      <c r="O94">
+        <v>4.0779999999999997E-2</v>
+      </c>
+      <c r="P94">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="Q94">
+        <v>0.2616</v>
+      </c>
+      <c r="R94">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="S94">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="T94">
+        <v>0.48970000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20">
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>0.8</v>
+      </c>
+      <c r="E95">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F95">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s">
+        <v>30</v>
+      </c>
+      <c r="I95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J95" t="s">
+        <v>30</v>
+      </c>
+      <c r="K95">
+        <v>4.65E-2</v>
+      </c>
+      <c r="L95">
+        <v>1.5139999999999999E-3</v>
+      </c>
+      <c r="M95">
+        <v>0.35</v>
+      </c>
+      <c r="N95">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="O95">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="P95">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="Q95">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="R95">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="S95">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="T95">
+        <v>0.51980000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="3:20">
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>0.9</v>
+      </c>
+      <c r="E96">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F96">
+        <v>0.443</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1.899E-8</v>
+      </c>
+      <c r="H96">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="I96">
+        <v>1.039E-3</v>
+      </c>
+      <c r="J96">
+        <v>0.9909</v>
+      </c>
+      <c r="K96">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="L96">
+        <v>7.2679999999999999E-4</v>
+      </c>
+      <c r="M96">
+        <v>0.62</v>
+      </c>
+      <c r="N96">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="O96">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="P96">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="Q96">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="R96">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="S96">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="T96">
+        <v>0.70279999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20">
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>0.52</v>
+      </c>
+      <c r="E97">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F97">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G97" s="1">
+        <v>6.696E-9</v>
+      </c>
+      <c r="H97">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="I97">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="J97">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="K97">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="L97">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="M97">
+        <v>0.84</v>
+      </c>
+      <c r="N97">
+        <v>0.1179</v>
+      </c>
+      <c r="O97">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="P97">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="S97">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="T97">
+        <v>0.87770000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20">
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>0.85</v>
+      </c>
+      <c r="E98">
+        <v>0.3</v>
+      </c>
+      <c r="F98">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G98" s="1">
+        <v>5.02E-8</v>
+      </c>
+      <c r="H98">
+        <v>1.8370000000000001E-2</v>
+      </c>
+      <c r="I98">
+        <v>5.9719999999999999E-3</v>
+      </c>
+      <c r="J98">
+        <v>0.995</v>
+      </c>
+      <c r="K98">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L98">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="M98">
+        <v>0.53</v>
+      </c>
+      <c r="N98">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="O98">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="P98">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="Q98">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="R98">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="S98">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="T98">
+        <v>0.52649999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20">
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>0.76</v>
+      </c>
+      <c r="E99">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F99">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2.4170000000000002E-13</v>
+      </c>
+      <c r="H99">
+        <v>1.2489999999999999E-2</v>
+      </c>
+      <c r="I99">
+        <v>1.125E-2</v>
+      </c>
+      <c r="J99">
+        <v>2.5710000000000002E-4</v>
+      </c>
+      <c r="K99">
+        <v>0.253</v>
+      </c>
+      <c r="L99">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="M99">
+        <v>0.43</v>
+      </c>
+      <c r="N99">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="O99">
+        <v>0.4032</v>
+      </c>
+      <c r="P99">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="Q99">
+        <v>0.9456</v>
+      </c>
+      <c r="R99">
+        <v>0.2722</v>
+      </c>
+      <c r="S99">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="T99">
+        <v>0.49759999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20">
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>0.33</v>
+      </c>
+      <c r="E100">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F100">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G100" s="1">
+        <v>6.3749999999999997E-32</v>
+      </c>
+      <c r="H100">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="I100">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="K100">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L100">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="M100">
+        <v>0.38</v>
+      </c>
+      <c r="N100">
+        <v>0.1207</v>
+      </c>
+      <c r="O100">
+        <v>5.4739999999999997E-2</v>
+      </c>
+      <c r="P100">
+        <v>0.1135</v>
+      </c>
+      <c r="Q100">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="R100">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="S100">
+        <v>0.6744</v>
+      </c>
+      <c r="T100">
+        <v>0.82820000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20">
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101">
+        <v>0.38</v>
+      </c>
+      <c r="E101">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F101">
+        <v>0.314</v>
+      </c>
+      <c r="G101" s="1">
+        <v>9.565E-9</v>
+      </c>
+      <c r="H101">
+        <v>0.5827</v>
+      </c>
+      <c r="I101">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="J101">
+        <v>6.2519999999999997E-3</v>
+      </c>
+      <c r="K101">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="L101">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="M101">
+        <v>0.31</v>
+      </c>
+      <c r="N101">
+        <v>5.1929999999999997E-2</v>
+      </c>
+      <c r="O101">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P101">
+        <v>2.6460000000000001E-2</v>
+      </c>
+      <c r="Q101">
+        <v>0.8679</v>
+      </c>
+      <c r="R101">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="S101">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="T101">
+        <v>0.84019999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20">
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>0.8</v>
+      </c>
+      <c r="E102">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F102">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2.7110000000000001E-23</v>
+      </c>
+      <c r="H102">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="I102">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="J102" s="1">
+        <v>9.0660000000000006E-8</v>
+      </c>
+      <c r="K102">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="L102">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="M102">
+        <v>0.23</v>
+      </c>
+      <c r="N102">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="O102">
+        <v>0.27689999999999998</v>
+      </c>
+      <c r="P102">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="Q102">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="R102">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="S102">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T102">
+        <v>0.62080000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="3:20">
+      <c r="C103" t="s">
+        <v>557</v>
+      </c>
+      <c r="D103">
+        <v>0.79</v>
+      </c>
+      <c r="E103">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F103">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G103" s="1">
+        <v>6.0790000000000003E-21</v>
+      </c>
+      <c r="H103">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="I103">
+        <v>7.8179999999999999E-2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>7.1009999999999999E-5</v>
+      </c>
+      <c r="K103">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L103">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="M103">
+        <v>0.2</v>
+      </c>
+      <c r="N103">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="O103">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="P103">
+        <v>0.876</v>
+      </c>
+      <c r="Q103">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="R103">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="S103">
+        <v>0.1953</v>
+      </c>
+      <c r="T103">
+        <v>0.2676</v>
+      </c>
+    </row>
+    <row r="104" spans="3:20">
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>0.38</v>
+      </c>
+      <c r="E104">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F104">
+        <v>0.996</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1.3319999999999999E-8</v>
+      </c>
+      <c r="H104">
+        <v>1.8569999999999999E-3</v>
+      </c>
+      <c r="I104">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1.161E-6</v>
+      </c>
+      <c r="K104">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="L104">
+        <v>9.3520000000000006E-2</v>
+      </c>
+      <c r="M104">
+        <v>0.8</v>
+      </c>
+      <c r="N104">
+        <v>3.8629999999999998E-2</v>
+      </c>
+      <c r="O104">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="P104">
+        <v>0.39240000000000003</v>
+      </c>
+      <c r="Q104">
+        <v>0.1105</v>
+      </c>
+      <c r="R104">
+        <v>8.6749999999999994E-2</v>
+      </c>
+      <c r="S104">
+        <v>6.2429999999999999E-2</v>
+      </c>
+      <c r="T104">
+        <v>0.1991</v>
+      </c>
+    </row>
+    <row r="105" spans="3:20">
+      <c r="C105" t="s">
+        <v>592</v>
+      </c>
+      <c r="D105">
+        <v>0.82</v>
+      </c>
+      <c r="E105">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F105">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4.9539999999999998E-11</v>
+      </c>
+      <c r="H105">
+        <v>0.49780000000000002</v>
+      </c>
+      <c r="I105">
+        <v>7.1079999999999997E-3</v>
+      </c>
+      <c r="J105">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="K105">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L105">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="M105">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N105">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="O105">
+        <v>0.9516</v>
+      </c>
+      <c r="P105">
+        <v>0.57320000000000004</v>
+      </c>
+      <c r="Q105">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="R105">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="S105">
+        <v>0.3165</v>
+      </c>
+      <c r="T105">
+        <v>0.79339999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="3:20">
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>0.87</v>
+      </c>
+      <c r="E106">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F106">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G106" s="1">
+        <v>8.2809999999999996E-54</v>
+      </c>
+      <c r="H106">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I106">
+        <v>2.9590000000000002E-2</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1.6289999999999999E-8</v>
+      </c>
+      <c r="K106">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="L106">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="M106">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N106">
+        <v>0.4088</v>
+      </c>
+      <c r="O106">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P106">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="Q106">
+        <v>4.5539999999999997E-2</v>
+      </c>
+      <c r="R106">
+        <v>7.1959999999999996E-2</v>
+      </c>
+      <c r="S106">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="T106">
+        <v>0.18770000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="3:20">
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107">
+        <v>0.79</v>
+      </c>
+      <c r="E107">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F107">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G107" s="1">
+        <v>3.6899999999999999E-9</v>
+      </c>
+      <c r="H107">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="I107">
+        <v>2.213E-2</v>
+      </c>
+      <c r="J107">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="K107">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L107">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="M107">
+        <v>0.4</v>
+      </c>
+      <c r="N107">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O107">
+        <v>0.1699</v>
+      </c>
+      <c r="P107">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="Q107">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="R107">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="S107">
+        <v>0.24</v>
+      </c>
+      <c r="T107">
+        <v>0.1857</v>
+      </c>
+    </row>
+    <row r="108" spans="3:20">
+      <c r="C108" t="s">
+        <v>589</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F108">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1.347E-11</v>
+      </c>
+      <c r="H108">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="I108">
+        <v>2.5760000000000002E-3</v>
+      </c>
+      <c r="J108">
+        <v>4.5109999999999997E-2</v>
+      </c>
+      <c r="K108">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L108">
+        <v>8.158E-2</v>
+      </c>
+      <c r="M108">
+        <v>0.25</v>
+      </c>
+      <c r="N108">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="O108">
+        <v>0.8962</v>
+      </c>
+      <c r="P108">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="Q108">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="R108">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="S108">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="T108">
+        <v>0.70740000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="3:20">
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>0.82</v>
+      </c>
+      <c r="E109">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F109">
+        <v>0.745</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1.1199999999999999E-8</v>
+      </c>
+      <c r="H109">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="I109">
+        <v>5.4109999999999998E-2</v>
+      </c>
+      <c r="J109">
+        <v>8.0429999999999998E-4</v>
+      </c>
+      <c r="K109">
+        <v>0.122</v>
+      </c>
+      <c r="L109">
+        <v>0.1119</v>
+      </c>
+      <c r="M109">
+        <v>0.52</v>
+      </c>
+      <c r="N109">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="O109">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="P109">
+        <v>8.5180000000000006E-2</v>
+      </c>
+      <c r="Q109">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="R109">
+        <v>0.4667</v>
+      </c>
+      <c r="S109">
+        <v>0.3528</v>
+      </c>
+      <c r="T109">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="3:20">
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110">
+        <v>0.36</v>
+      </c>
+      <c r="E110">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F110">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2.0409999999999999E-8</v>
+      </c>
+      <c r="H110">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="I110">
+        <v>5.1490000000000001E-2</v>
+      </c>
+      <c r="J110">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="K110">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="L110">
+        <v>3.581E-3</v>
+      </c>
+      <c r="M110">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="N110">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="O110">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="P110">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="Q110">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="R110">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="S110">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="T110">
+        <v>0.15029999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="3:20">
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>0.49</v>
+      </c>
+      <c r="E111">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F111">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G111" s="1">
+        <v>8.9159999999999996E-12</v>
+      </c>
+      <c r="H111">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="I111">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="J111">
+        <v>2.12E-2</v>
+      </c>
+      <c r="K111">
+        <v>1.41E-3</v>
+      </c>
+      <c r="L111">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="M111">
+        <v>0.67</v>
+      </c>
+      <c r="N111">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="O111">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="P111">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="Q111">
+        <v>0.1003</v>
+      </c>
+      <c r="R111">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="S111">
+        <v>6.3049999999999995E-2</v>
+      </c>
+      <c r="T111">
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="3:20">
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112">
+        <v>0.66</v>
+      </c>
+      <c r="E112">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F112">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1.0260000000000001E-8</v>
+      </c>
+      <c r="H112">
+        <v>0.2462</v>
+      </c>
+      <c r="I112">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="J112" s="1">
+        <v>3.6350000000000003E-5</v>
+      </c>
+      <c r="K112">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L112">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="M112">
+        <v>0.64</v>
+      </c>
+      <c r="N112">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="O112">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="P112">
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="Q112">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="R112">
+        <v>0.1321</v>
+      </c>
+      <c r="S112">
+        <v>0.59709999999999996</v>
+      </c>
+      <c r="T112">
+        <v>0.54290000000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="3:20">
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <v>0.91</v>
+      </c>
+      <c r="E113">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F113">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3.0110000000000003E-8</v>
+      </c>
+      <c r="H113">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="I113">
+        <v>7.7759999999999996E-2</v>
+      </c>
+      <c r="J113">
+        <v>6.9410000000000001E-3</v>
+      </c>
+      <c r="K113">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="L113">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="M113">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N113">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="O113">
+        <v>0.1186</v>
+      </c>
+      <c r="P113">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="Q113">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="R113">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="S113">
+        <v>0.3569</v>
+      </c>
+      <c r="T113">
+        <v>4.1450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:20">
+      <c r="C114" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="11"/>
+    </row>
+    <row r="115" spans="3:20">
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="3:20">
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>1.18827043515</v>
+      </c>
+      <c r="E116">
+        <v>1.0026582472600001</v>
+      </c>
+      <c r="F116">
+        <v>1.4045096346399999</v>
+      </c>
+      <c r="G116">
+        <v>0.235969967754</v>
+      </c>
+    </row>
+    <row r="117" spans="3:20">
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117">
+        <v>0.13207061487800001</v>
+      </c>
+      <c r="E117">
+        <v>0.68847572212800001</v>
+      </c>
+      <c r="F117">
+        <v>3.67989256088E-2</v>
+      </c>
+      <c r="G117">
+        <v>0.84787500995499998</v>
+      </c>
+    </row>
+    <row r="118" spans="3:20">
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>-4.9575705598099998E-2</v>
+      </c>
+      <c r="E118">
+        <v>0.42419439946100002</v>
+      </c>
+      <c r="F118">
+        <v>1.36586553816E-2</v>
+      </c>
+      <c r="G118">
+        <v>0.90696287346500004</v>
+      </c>
+    </row>
+    <row r="119" spans="3:20">
+      <c r="C119" t="s">
+        <v>599</v>
+      </c>
+      <c r="D119">
+        <v>0.96803997422200005</v>
+      </c>
+      <c r="E119">
+        <v>0.93997401890900001</v>
+      </c>
+      <c r="F119">
+        <v>1.06060796264</v>
+      </c>
+      <c r="G119">
+        <v>0.30307656374199998</v>
+      </c>
+    </row>
+    <row r="120" spans="3:20">
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120">
+        <v>1.31116734941</v>
+      </c>
+      <c r="E120">
+        <v>0.90646129215299998</v>
+      </c>
+      <c r="F120">
+        <v>2.0922699848100001</v>
+      </c>
+      <c r="G120">
+        <v>0.148045951111</v>
+      </c>
+    </row>
+    <row r="121" spans="3:20">
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121">
+        <v>-0.15151876557400001</v>
+      </c>
+      <c r="E121">
+        <v>0.48521914303500002</v>
+      </c>
+      <c r="F121">
+        <v>9.7511759744500007E-2</v>
+      </c>
+      <c r="G121">
+        <v>0.75483630250099998</v>
+      </c>
+    </row>
+    <row r="122" spans="3:20">
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>1.4132457355500001</v>
+      </c>
+      <c r="E122">
+        <v>0.698865230241</v>
+      </c>
+      <c r="F122">
+        <v>4.0892955423000004</v>
+      </c>
+      <c r="G122">
+        <v>4.31556252923E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:20">
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123">
+        <v>0.31404241129900001</v>
+      </c>
+      <c r="E123">
+        <v>0.47589098325599999</v>
+      </c>
+      <c r="F123">
+        <v>0.435473422015</v>
+      </c>
+      <c r="G123">
+        <v>0.50931537257000004</v>
+      </c>
+    </row>
+    <row r="124" spans="3:20">
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>-0.50579837676999995</v>
+      </c>
+      <c r="E124">
+        <v>0.51972313773099998</v>
+      </c>
+      <c r="F124">
+        <v>0.94713254296799998</v>
+      </c>
+      <c r="G124">
+        <v>0.33045025937400002</v>
+      </c>
+    </row>
+    <row r="125" spans="3:20">
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125">
+        <v>-0.13794634559400001</v>
+      </c>
+      <c r="E125">
+        <v>0.344933105011</v>
+      </c>
+      <c r="F125">
+        <v>0.159937625498</v>
+      </c>
+      <c r="G125">
+        <v>0.68921394993999996</v>
+      </c>
+    </row>
+    <row r="126" spans="3:20">
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126">
+        <v>-0.88196907839299998</v>
+      </c>
+      <c r="E126">
+        <v>0.26835623687799998</v>
+      </c>
+      <c r="F126">
+        <v>10.801481643100001</v>
+      </c>
+      <c r="G126">
+        <v>1.0141889100799999E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="3:20">
+      <c r="C127" t="s">
+        <v>565</v>
+      </c>
+      <c r="D127">
+        <v>-0.83852602962800005</v>
+      </c>
+      <c r="E127">
+        <v>0.540828416812</v>
+      </c>
+      <c r="F127">
+        <v>2.4038872372700002</v>
+      </c>
+      <c r="G127">
+        <v>0.121034161668</v>
+      </c>
+    </row>
+    <row r="128" spans="3:20">
+      <c r="C128" t="s">
+        <v>557</v>
+      </c>
+      <c r="D128">
+        <v>-0.18274700913399999</v>
+      </c>
+      <c r="E128">
+        <v>0.89290310112399995</v>
+      </c>
+      <c r="F128">
+        <v>4.1888218792199998E-2</v>
+      </c>
+      <c r="G128">
+        <v>0.83783299596000005</v>
+      </c>
+    </row>
+    <row r="129" spans="3:20">
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>0.55827449047</v>
+      </c>
+      <c r="E129">
+        <v>0.58359171264599996</v>
+      </c>
+      <c r="F129">
+        <v>0.91511850116399995</v>
+      </c>
+      <c r="G129">
+        <v>0.33875996734399999</v>
+      </c>
+    </row>
+    <row r="130" spans="3:20">
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>-3.4177369139999997E-2</v>
+      </c>
+      <c r="E130">
+        <v>0.41707267270600001</v>
+      </c>
+      <c r="F130">
+        <v>6.7151201565500002E-3</v>
+      </c>
+      <c r="G130">
+        <v>0.93468978454499996</v>
+      </c>
+    </row>
+    <row r="131" spans="3:20">
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131">
+        <v>-0.30842059167199998</v>
+      </c>
+      <c r="E131">
+        <v>0.26442655353799999</v>
+      </c>
+      <c r="F131">
+        <v>1.36043126071</v>
+      </c>
+      <c r="G131">
+        <v>0.243462754339</v>
+      </c>
+    </row>
+    <row r="132" spans="3:20">
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132">
+        <v>-1.37083821424</v>
+      </c>
+      <c r="E132">
+        <v>0.73222468612799996</v>
+      </c>
+      <c r="F132">
+        <v>3.5049648910800002</v>
+      </c>
+      <c r="G132">
+        <v>6.11851424822E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="3:20">
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>-0.43216534139700002</v>
+      </c>
+      <c r="E133">
+        <v>0.67575753778799996</v>
+      </c>
+      <c r="F133">
+        <v>0.40899506864399998</v>
+      </c>
+      <c r="G133">
+        <v>0.52248000996300004</v>
+      </c>
+    </row>
+    <row r="134" spans="3:20">
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>0.12670738734000001</v>
+      </c>
+      <c r="E134">
+        <v>0.332408743359</v>
+      </c>
+      <c r="F134">
+        <v>0.145297785421</v>
+      </c>
+      <c r="G134">
+        <v>0.703070084649</v>
+      </c>
+    </row>
+    <row r="135" spans="3:20">
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135">
+        <v>-0.28883720895100001</v>
+      </c>
+      <c r="E135">
+        <v>0.690707762404</v>
+      </c>
+      <c r="F135">
+        <v>0.17487092443999999</v>
+      </c>
+      <c r="G135">
+        <v>0.67581865371899996</v>
+      </c>
+    </row>
+    <row r="136" spans="3:20">
+      <c r="C136" t="s">
+        <v>601</v>
+      </c>
+      <c r="D136" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="138" spans="3:20" ht="16" thickBot="1">
+      <c r="C138" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H138" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I138" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L138" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M138" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N138" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O138" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P138" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q138" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="R138" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="S138" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T138" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="3:20" ht="16" thickTop="1">
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139">
+        <v>0.76</v>
+      </c>
+      <c r="E139">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F139">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2.4170000000000002E-13</v>
+      </c>
+      <c r="H139" s="7">
+        <v>1.2489999999999999E-2</v>
+      </c>
+      <c r="I139" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="J139">
+        <v>2.5710000000000002E-4</v>
+      </c>
+      <c r="K139">
+        <v>0.253</v>
+      </c>
+      <c r="L139">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="M139">
+        <v>0.43</v>
+      </c>
+      <c r="N139">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="O139">
+        <v>0.4032</v>
+      </c>
+      <c r="P139">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="Q139">
+        <v>0.9456</v>
+      </c>
+      <c r="R139">
+        <v>0.2722</v>
+      </c>
+      <c r="S139">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="T139">
+        <v>0.49759999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="3:20">
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>0.43</v>
+      </c>
+      <c r="E140">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F140">
+        <v>0.26</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4.964E-8</v>
+      </c>
+      <c r="H140">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="I140" s="7">
+        <v>2.1190000000000001E-2</v>
+      </c>
+      <c r="J140">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="K140">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L140">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="M140">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N140">
+        <v>0.4839</v>
+      </c>
+      <c r="O140">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="P140">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="Q140">
+        <v>2.8369999999999999E-2</v>
+      </c>
+      <c r="R140">
+        <v>8.387E-2</v>
+      </c>
+      <c r="S140">
+        <v>2.8410000000000001E-2</v>
+      </c>
+      <c r="T140">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="3:20">
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141">
+        <v>0.79</v>
+      </c>
+      <c r="E141">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F141">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G141" s="1">
+        <v>3.6899999999999999E-9</v>
+      </c>
+      <c r="H141">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="I141" s="7">
+        <v>2.213E-2</v>
+      </c>
+      <c r="J141">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="K141" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L141">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="M141">
+        <v>0.4</v>
+      </c>
+      <c r="N141">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O141">
+        <v>0.1699</v>
+      </c>
+      <c r="P141">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="Q141">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="R141">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="S141">
+        <v>0.24</v>
+      </c>
+      <c r="T141">
+        <v>0.1857</v>
+      </c>
+    </row>
+    <row r="142" spans="3:20">
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142">
+        <v>0.87</v>
+      </c>
+      <c r="E142">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F142">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G142" s="1">
+        <v>8.2809999999999996E-54</v>
+      </c>
+      <c r="H142">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I142" s="7">
+        <v>2.9590000000000002E-2</v>
+      </c>
+      <c r="J142" s="1">
+        <v>1.6289999999999999E-8</v>
+      </c>
+      <c r="K142">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="L142">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="M142">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N142">
+        <v>0.4088</v>
+      </c>
+      <c r="O142">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P142">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="Q142">
+        <v>4.5539999999999997E-2</v>
+      </c>
+      <c r="R142">
+        <v>7.1959999999999996E-2</v>
+      </c>
+      <c r="S142">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="T142">
+        <v>0.18770000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="3:20">
+      <c r="C143" t="s">
+        <v>565</v>
+      </c>
+      <c r="D143">
+        <v>0.46</v>
+      </c>
+      <c r="E143">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F143">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1.8670000000000001E-8</v>
+      </c>
+      <c r="H143">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="I143" s="7">
+        <v>3.1989999999999998E-2</v>
+      </c>
+      <c r="J143">
+        <v>1.4840000000000001E-2</v>
+      </c>
+      <c r="K143">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L143">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="M143">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N143">
+        <v>0.187</v>
+      </c>
+      <c r="O143">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="P143">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="Q143">
+        <v>0.47610000000000002</v>
+      </c>
+      <c r="R143">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="S143">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="T143">
+        <v>0.70820000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="3:20">
+      <c r="C144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144">
+        <v>0.36</v>
+      </c>
+      <c r="E144">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F144">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G144" s="1">
+        <v>2.0409999999999999E-8</v>
+      </c>
+      <c r="H144">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="I144">
+        <v>5.1490000000000001E-2</v>
+      </c>
+      <c r="J144">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="K144">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="L144">
+        <v>3.581E-3</v>
+      </c>
+      <c r="M144">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="N144">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="O144">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="P144">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="Q144">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="R144">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="S144">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="T144">
+        <v>0.15029999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="3:20">
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145">
+        <v>0.82</v>
+      </c>
+      <c r="E145">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F145">
+        <v>0.745</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1.1199999999999999E-8</v>
+      </c>
+      <c r="H145">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="I145">
+        <v>5.4109999999999998E-2</v>
+      </c>
+      <c r="J145">
+        <v>8.0429999999999998E-4</v>
+      </c>
+      <c r="K145">
+        <v>0.122</v>
+      </c>
+      <c r="L145">
+        <v>0.1119</v>
+      </c>
+      <c r="M145">
+        <v>0.52</v>
+      </c>
+      <c r="N145">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="O145">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="P145">
+        <v>8.5180000000000006E-2</v>
+      </c>
+      <c r="Q145">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="R145">
+        <v>0.4667</v>
+      </c>
+      <c r="S145">
+        <v>0.3528</v>
+      </c>
+      <c r="T145">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="3:20">
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146">
+        <v>0.32</v>
+      </c>
+      <c r="E146">
+        <v>0.17</v>
+      </c>
+      <c r="F146">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G146" s="1">
+        <v>2.6960000000000001E-17</v>
+      </c>
+      <c r="H146">
+        <v>0.48230000000000001</v>
+      </c>
+      <c r="I146">
+        <v>5.9159999999999997E-2</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1.959E-5</v>
+      </c>
+      <c r="K146">
+        <v>0.85</v>
+      </c>
+      <c r="L146">
+        <v>7.672E-3</v>
+      </c>
+      <c r="M146">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N146">
+        <v>0.3538</v>
+      </c>
+      <c r="O146">
+        <v>4.0779999999999997E-2</v>
+      </c>
+      <c r="P146">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="Q146">
+        <v>0.2616</v>
+      </c>
+      <c r="R146">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="S146">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="T146">
+        <v>0.48970000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="3:20">
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147">
+        <v>0.91</v>
+      </c>
+      <c r="E147">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F147" s="7">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G147" s="1">
+        <v>3.0110000000000003E-8</v>
+      </c>
+      <c r="H147">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="I147">
+        <v>7.7759999999999996E-2</v>
+      </c>
+      <c r="J147">
+        <v>6.9410000000000001E-3</v>
+      </c>
+      <c r="K147">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="L147">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="M147">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N147">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="O147">
+        <v>0.1186</v>
+      </c>
+      <c r="P147">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="Q147">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="R147">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="S147">
+        <v>0.3569</v>
+      </c>
+      <c r="T147">
+        <v>4.1450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="3:20">
+      <c r="C148" t="s">
+        <v>557</v>
+      </c>
+      <c r="D148">
+        <v>0.79</v>
+      </c>
+      <c r="E148">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F148">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G148" s="1">
+        <v>6.0790000000000003E-21</v>
+      </c>
+      <c r="H148">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="I148">
+        <v>7.8179999999999999E-2</v>
+      </c>
+      <c r="J148" s="1">
+        <v>7.1009999999999999E-5</v>
+      </c>
+      <c r="K148">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L148">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="M148">
+        <v>0.2</v>
+      </c>
+      <c r="N148">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="O148">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="P148">
+        <v>0.876</v>
+      </c>
+      <c r="Q148">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="R148">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="S148">
+        <v>0.1953</v>
+      </c>
+      <c r="T148">
+        <v>0.2676</v>
+      </c>
+    </row>
+    <row r="149" spans="3:20">
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149">
+        <v>0.87</v>
+      </c>
+      <c r="E149">
+        <v>5.33E-2</v>
+      </c>
+      <c r="F149">
+        <v>0.309</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1.6809999999999999E-10</v>
+      </c>
+      <c r="H149">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="I149">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="J149">
+        <v>1.9439999999999999E-2</v>
+      </c>
+      <c r="K149">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L149" s="1">
+        <v>9.2960000000000004E-5</v>
+      </c>
+      <c r="M149">
+        <v>0.21</v>
+      </c>
+      <c r="N149">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="O149">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="P149">
+        <v>0.2954</v>
+      </c>
+      <c r="Q149">
+        <v>0.7329</v>
+      </c>
+      <c r="R149">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="S149">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="T149">
+        <v>0.1948</v>
+      </c>
+    </row>
+    <row r="150" spans="3:20">
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>0.33</v>
+      </c>
+      <c r="E150">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F150">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G150" s="1">
+        <v>6.3749999999999997E-32</v>
+      </c>
+      <c r="H150">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="I150">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="K150">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L150">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="M150">
+        <v>0.38</v>
+      </c>
+      <c r="N150">
+        <v>0.1207</v>
+      </c>
+      <c r="O150">
+        <v>5.4739999999999997E-2</v>
+      </c>
+      <c r="P150">
+        <v>0.1135</v>
+      </c>
+      <c r="Q150">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="R150">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="S150">
+        <v>0.6744</v>
+      </c>
+      <c r="T150">
+        <v>0.82820000000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="3:20">
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151">
+        <v>0.52</v>
+      </c>
+      <c r="E151">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F151">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G151" s="1">
+        <v>6.696E-9</v>
+      </c>
+      <c r="H151">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="I151">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="J151">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="K151">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="L151">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="M151">
+        <v>0.84</v>
+      </c>
+      <c r="N151">
+        <v>0.1179</v>
+      </c>
+      <c r="O151">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="P151">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
+      <c r="R151">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="S151">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="T151">
+        <v>0.87770000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="3:20">
+      <c r="C152" t="s">
+        <v>599</v>
+      </c>
+      <c r="D152">
+        <v>0.87</v>
+      </c>
+      <c r="E152">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F152" s="7">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="G152" s="1">
+        <v>6.8880000000000005E-5</v>
+      </c>
+      <c r="H152">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="I152">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="J152">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="K152">
+        <v>0.153</v>
+      </c>
+      <c r="L152">
+        <v>0.3735</v>
+      </c>
+      <c r="M152">
+        <v>0.19</v>
+      </c>
+      <c r="N152">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="O152">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="P152">
+        <v>0.2455</v>
+      </c>
+      <c r="Q152">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="R152">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="S152">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="T152">
+        <v>2.972E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="3:20">
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E153" s="7">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F153">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G153" s="1">
+        <v>6.4500000000000002E-12</v>
+      </c>
+      <c r="H153">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="I153">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="J153">
+        <v>2.921E-4</v>
+      </c>
+      <c r="K153">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="L153">
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="M153">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N153">
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="O153">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="P153">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="Q153">
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="R153">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="S153">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="T153">
+        <v>0.68440000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="3:20">
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154">
+        <v>0.8</v>
+      </c>
+      <c r="E154">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F154">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G154" s="1">
+        <v>2.7110000000000001E-23</v>
+      </c>
+      <c r="H154">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="I154">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="J154" s="1">
+        <v>9.0660000000000006E-8</v>
+      </c>
+      <c r="K154">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="L154">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="M154">
+        <v>0.23</v>
+      </c>
+      <c r="N154">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="O154">
+        <v>0.27689999999999998</v>
+      </c>
+      <c r="P154">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="Q154">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="R154">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="S154">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T154">
+        <v>0.62080000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="3:20">
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>0.44</v>
+      </c>
+      <c r="E155" s="7">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F155">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1.7730000000000001E-13</v>
+      </c>
+      <c r="H155">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="I155">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="J155">
+        <v>3.1080000000000002E-4</v>
+      </c>
+      <c r="K155">
+        <v>0.25</v>
+      </c>
+      <c r="L155">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="M155">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N155">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="O155">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="P155">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="Q155">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="R155">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="S155">
+        <v>0.3362</v>
+      </c>
+      <c r="T155">
+        <v>0.43230000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="3:20">
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156">
+        <v>0.66</v>
+      </c>
+      <c r="E156">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F156">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1.0260000000000001E-8</v>
+      </c>
+      <c r="H156">
+        <v>0.2462</v>
+      </c>
+      <c r="I156">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="J156" s="1">
+        <v>3.6350000000000003E-5</v>
+      </c>
+      <c r="K156">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L156">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="M156">
+        <v>0.64</v>
+      </c>
+      <c r="N156">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="O156">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="P156">
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="Q156">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="R156">
+        <v>0.1321</v>
+      </c>
+      <c r="S156">
+        <v>0.59709999999999996</v>
+      </c>
+      <c r="T156">
+        <v>0.54290000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="3:20">
+      <c r="C157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157">
+        <v>0.38</v>
+      </c>
+      <c r="E157">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F157">
+        <v>0.314</v>
+      </c>
+      <c r="G157" s="1">
+        <v>9.565E-9</v>
+      </c>
+      <c r="H157">
+        <v>0.5827</v>
+      </c>
+      <c r="I157">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="J157">
+        <v>6.2519999999999997E-3</v>
+      </c>
+      <c r="K157" s="7">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="L157">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="M157">
+        <v>0.31</v>
+      </c>
+      <c r="N157">
+        <v>5.1929999999999997E-2</v>
+      </c>
+      <c r="O157">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="P157">
+        <v>2.6460000000000001E-2</v>
+      </c>
+      <c r="Q157">
+        <v>0.8679</v>
+      </c>
+      <c r="R157">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="S157">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="T157">
+        <v>0.84019999999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="3:20">
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>0.8</v>
+      </c>
+      <c r="E158">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F158">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G158" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I158" t="s">
+        <v>30</v>
+      </c>
+      <c r="J158" t="s">
+        <v>30</v>
+      </c>
+      <c r="K158" s="7">
+        <v>4.65E-2</v>
+      </c>
+      <c r="L158">
+        <v>1.5139999999999999E-3</v>
+      </c>
+      <c r="M158">
+        <v>0.35</v>
+      </c>
+      <c r="N158">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="O158">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="P158">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="Q158">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="R158">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="S158">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="T158">
+        <v>0.51980000000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
